--- a/Docs/List of Features.xlsx
+++ b/Docs/List of Features.xlsx
@@ -9,6 +9,7 @@
     <sheet state="visible" name="Questions" sheetId="4" r:id="rId6"/>
     <sheet state="visible" name="Resources" sheetId="5" r:id="rId7"/>
     <sheet state="visible" name="CRC For Noobs" sheetId="6" r:id="rId8"/>
+    <sheet state="visible" name="Bugs" sheetId="7" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="249">
   <si>
     <t>Feature Name</t>
   </si>
@@ -60,6 +61,9 @@
     <t>Additional Notes</t>
   </si>
   <si>
+    <t>Status</t>
+  </si>
+  <si>
     <t>View audio files based on path</t>
   </si>
   <si>
@@ -75,7 +79,7 @@
     <t>If we use a DB to maintain all files that are in the path then we need to have additional work to maintain consistency between OS file system and DB. Just keeping track of root dir path will proably have to rebuild list each time</t>
   </si>
   <si>
-    <t>Customer prefers to have different root folders shown side by side.</t>
+    <t>Customer prefers to have different root folders shown side by side. Later could use the OS browse window to locate the path via a GUI</t>
   </si>
   <si>
     <t>Listen to Audio files</t>
@@ -87,7 +91,10 @@
     <t>This might have to be on a separate thread becuase the user will probably want to do things while music is playing</t>
   </si>
   <si>
-    <t xml:space="preserve">What about seek bar? </t>
+    <t>Seek has an issue in JavaFX. Does not correctly report time in some cases. I tried 3 files and 2 out of 3 of them reporduces the error. https://bugs.openjdk.java.net/browse/JDK-8088376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MP3 Playback done for 1st iteration. Shuffle, Next and Previous Song not done yet. </t>
   </si>
   <si>
     <t>Copy files from "Other" section to users library</t>
@@ -99,22 +106,19 @@
     <t>If the copied file has the same name suggested to do something similar to Windows Explorer.</t>
   </si>
   <si>
-    <t>Later: Do fuzy check to see if the copied file is already in users library</t>
+    <t>Later: Do fuzy check to see if the copied file is already in users library. Merge this and bottom one (4 and 5)</t>
   </si>
   <si>
-    <t>Merge this and bottom one (4 and 5)</t>
+    <t>Move/Copy files from one folder to another.</t>
   </si>
   <si>
-    <t>Move/Copy files from one folder to another, Rename files in a folder.</t>
-  </si>
-  <si>
-    <t>The user can move or copy files from one folder to another. The user can also rename files in a folder.</t>
+    <t xml:space="preserve">The user can move or copy files from one folder to another. </t>
   </si>
   <si>
     <t>Same as above (same file names)</t>
   </si>
   <si>
-    <t>Wants to be able to copy and rename files within other peoples library. Wants all operations that are in his library to be accessible in other peoples</t>
+    <t>Wants to be able to copy files within other peoples library. Wants all operations that are in his library to be accessible in other peoples</t>
   </si>
   <si>
     <t>Delete songs</t>
@@ -141,10 +145,16 @@
     <t>User has to interact with the program some way. Usability wise a GUI is the only option. Only show music files</t>
   </si>
   <si>
-    <t>High?</t>
+    <t xml:space="preserve">As Client he wants GUI. Have paper GUI mock for next meeting. </t>
   </si>
   <si>
-    <t xml:space="preserve">As Client he wants GUI. Have paper GUI mock for next meeting. </t>
+    <t>Rename files</t>
+  </si>
+  <si>
+    <t>The user will have the ability to rename a file in a folder.</t>
+  </si>
+  <si>
+    <t>Medium</t>
   </si>
   <si>
     <t>Create playlist/collection</t>
@@ -156,7 +166,7 @@
     <t>Playlist are virtual so we can just store a list of file paths. Need database that stores sequence of shuffled songs in the playlist and the last song played.</t>
   </si>
   <si>
-    <t>Medium?</t>
+    <t>First iteration strech goal</t>
   </si>
   <si>
     <t>Export playlist/collection to car</t>
@@ -165,10 +175,7 @@
     <t>Exporting a playlist/collection to the car. The car can only look at ID3 V1 and ID3 V2 for information so file names are useless. Will only look at one of them, we dont know which one so we need to populate both. Export will either perserve folder structure or compress it. Downsample if not enough room in destination. User can select which songs to export, and can also filter them by ratings, artist, etc.</t>
   </si>
   <si>
-    <t>Medium</t>
-  </si>
-  <si>
-    <t>Later: Export will renamed songs to be like 001 or something. Filter songs by rating so user will be able to choose from only those songs.</t>
+    <t>First iteration strech goal. Later: Export will renamed songs to be like 001 or something. Filter songs by rating so user will be able to choose from only those songs.</t>
   </si>
   <si>
     <t>Search bar</t>
@@ -279,7 +286,7 @@
     <t>Java, DB, UI, Design, Networking</t>
   </si>
   <si>
-    <t>MusicPlayer Basic Setup</t>
+    <t>MusicPlayer/Basic Setup/UI For now</t>
   </si>
   <si>
     <t>Ivan</t>
@@ -336,9 +343,6 @@
     <t>Feature</t>
   </si>
   <si>
-    <t>Status</t>
-  </si>
-  <si>
     <t>Priorty</t>
   </si>
   <si>
@@ -381,6 +385,12 @@
     <t>Serach for Song in Library</t>
   </si>
   <si>
+    <t>High/Medium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Listen for changes in the file system. Use Java WatchService API for it. </t>
+  </si>
+  <si>
     <t>Controller/Application</t>
   </si>
   <si>
@@ -396,10 +406,16 @@
     <t xml:space="preserve">Play a Song </t>
   </si>
   <si>
+    <t>Done but only for MP3</t>
+  </si>
+  <si>
     <t>Create Playlist from songs in user library</t>
   </si>
   <si>
-    <t>Implement Controls for player : Start, Pause, Volumn Control</t>
+    <t>Implement Controls for player : Start, Pause, Volumn Control, Seek</t>
+  </si>
+  <si>
+    <t>Done</t>
   </si>
   <si>
     <t>Record and save previous and next song</t>
@@ -480,6 +496,24 @@
     <t>Persistent storage. Loading Library at program startup?</t>
   </si>
   <si>
+    <t>Use rating tag in id3? (If so, then when the song gets copied/exported, the rating will be kept in the song)</t>
+  </si>
+  <si>
+    <t>Does not matter too much (may be better to keep the rating when exporting)</t>
+  </si>
+  <si>
+    <t>Should app show file name or title tag in metadata?</t>
+  </si>
+  <si>
+    <t>File name is fine</t>
+  </si>
+  <si>
+    <t>Startup screen to select library paths, or select library paths in main app?</t>
+  </si>
+  <si>
+    <t>If you click the previous song button does that add to the playback history? Similar idea for skipping a song. Does that add to history</t>
+  </si>
+  <si>
     <t>Put any resources that maybe useful here:</t>
   </si>
   <si>
@@ -492,10 +526,16 @@
     <t>Link</t>
   </si>
   <si>
+    <t>Problems</t>
+  </si>
+  <si>
     <t>Playing MP3 on Java Application Video</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=LavMuqK5Is0</t>
+  </si>
+  <si>
+    <t>This says to use the JLayer jar</t>
   </si>
   <si>
     <t>mp3agic - Java libaray for reading mp3 files. MIT license</t>
@@ -516,10 +556,16 @@
     <t>http://www.beaglebuddy.com/</t>
   </si>
   <si>
+    <t>This library is only for IDV3 tag modification. Really easy to use though</t>
+  </si>
+  <si>
     <t>Oracles Java Audio Playback tutorial - Note using Java Audio Playback API seems to only support WAV</t>
   </si>
   <si>
     <t>https://docs.oracle.com/javase/tutorial/sound/playing.html</t>
+  </si>
+  <si>
+    <t>Only Support for PMC formats so MP3 would have to be converted to it to work. Using mp3 plugin by them requires modification to some JMFRegistery which could be problematic during deployment,</t>
   </si>
   <si>
     <t>JLayer MP3 Library LGPL license</t>
@@ -528,13 +574,37 @@
     <t>http://www.javazoom.net/javalayer/javalayer.html</t>
   </si>
   <si>
-    <t>Java FX has some Media player that suppose to play mp3. Tried to do POC of it and couldn't get it to work for local files...</t>
+    <t xml:space="preserve">The player in here looks like it cannot be paused using the player given. Also this library is only correct 99% of the times. I have gotten this to work but it looks like this will require putting it on a separate thread. Currently investigating using this library by adding on threading. PlayerApplet does nothing really most of the functions says it not been implemented. </t>
+  </si>
+  <si>
+    <t>Java FX has some Media player that suppose to play mp3.</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
   <si>
     <t>More Oracle Documentation for Thier sound API</t>
   </si>
   <si>
     <t>https://docs.oracle.com/javase/tutorial/sound/sampled-overview.html#formatted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xuggle Media Library. Good for compressions </t>
+  </si>
+  <si>
+    <t>http://www.xuggle.com/xuggler</t>
+  </si>
+  <si>
+    <t>FFmpeg is the library that MP3 are made from.</t>
+  </si>
+  <si>
+    <t>Jffmpeg Additional Codec Library for Java JMF</t>
+  </si>
+  <si>
+    <t>http://jffmpeg.sourceforge.net/formats.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Possibly same problem with the mp3 plugin that it will have to manage the codec using some other application. </t>
   </si>
   <si>
     <t>Database Resources</t>
@@ -582,6 +652,54 @@
     <t>http://www.tutorialspoint.com/sqlite/sqlite_java.htm</t>
   </si>
   <si>
+    <t>Java FX Resouces</t>
+  </si>
+  <si>
+    <t>Simple Hello World For Java FX</t>
+  </si>
+  <si>
+    <t>http://docs.oracle.com/javafx/2/get_started/hello_world.htm</t>
+  </si>
+  <si>
+    <t>JavaFX different layouts</t>
+  </si>
+  <si>
+    <t>http://docs.oracle.com/javafx/2/layout/builtin_layouts.htm</t>
+  </si>
+  <si>
+    <t>JavaFX UI Componets</t>
+  </si>
+  <si>
+    <t>https://docs.oracle.com/javase/8/javafx/user-interface-tutorial/ui_controls.htm#JFXUI336</t>
+  </si>
+  <si>
+    <t>JavaFX Treeview</t>
+  </si>
+  <si>
+    <t>https://docs.oracle.com/javafx/2/ui_controls/tree-view.htm</t>
+  </si>
+  <si>
+    <t>Treeview sub-folders</t>
+  </si>
+  <si>
+    <t>http://stackoverflow.com/questions/26690247/how-to-make-directories-expandable-in-javafx-treeview</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JavaFX file chooser (could be used for configuring paths) </t>
+  </si>
+  <si>
+    <t>http://docs.oracle.com/javafx/2/ui_controls/file-chooser.htm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">General Java Resouces </t>
+  </si>
+  <si>
+    <t>How to listen for changes in the file directory</t>
+  </si>
+  <si>
+    <t>https://docs.oracle.com/javase/tutorial/essential/io/notification.html</t>
+  </si>
+  <si>
     <t>CRC for Noobs</t>
   </si>
   <si>
@@ -620,12 +738,63 @@
   <si>
     <t>Will be used by AccountManager to determine if the user is active or not</t>
   </si>
+  <si>
+    <t>Place Bugs Here</t>
+  </si>
+  <si>
+    <t>Bug</t>
+  </si>
+  <si>
+    <t>Exceptions</t>
+  </si>
+  <si>
+    <t>Repoduction Case</t>
+  </si>
+  <si>
+    <t>Affected Componets</t>
+  </si>
+  <si>
+    <t>All information is not visible if you have alot of files being shown in the center.</t>
+  </si>
+  <si>
+    <t>If you have a folder you are watching with lots of files in it then if you expand the folder you cannot see everything. Now if the center panel does not have that much data in it, the left and right panels are scrollable.</t>
+  </si>
+  <si>
+    <t>View a folder with alot of files and directories in the center panel. Your cannot scroll left and right</t>
+  </si>
+  <si>
+    <t>Left, Right, Center panels</t>
+  </si>
+  <si>
+    <t>Resizing element should be disabled</t>
+  </si>
+  <si>
+    <t>We need to have a minimun size that the user cannot resize any lower. By setting this lower bound then we wont hit any of the cases where the panels are too small. Similarilty with max size</t>
+  </si>
+  <si>
+    <t>Resize the window to be really small or something</t>
+  </si>
+  <si>
+    <t>All UI components</t>
+  </si>
+  <si>
+    <t>Songs With No Metadata are shown with empty fields</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A song without the metadata id fields is shown in the center with no info. Not even file name. </t>
+  </si>
+  <si>
+    <t>Take a song with not file metadata in it and click to view in center.</t>
+  </si>
+  <si>
+    <t>Center UI Panel</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -653,8 +822,12 @@
       <u/>
       <color rgb="FF0000FF"/>
     </font>
+    <font>
+      <u/>
+      <color rgb="FF0000FF"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -677,6 +850,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFB7E1CD"/>
         <bgColor rgb="FFB7E1CD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4CCCC"/>
+        <bgColor rgb="FFF4CCCC"/>
       </patternFill>
     </fill>
   </fills>
@@ -733,7 +912,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
@@ -785,6 +964,9 @@
     <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf borderId="4" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment wrapText="1"/>
     </xf>
@@ -796,6 +978,12 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment/>
@@ -901,6 +1089,10 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
+<file path=xl/drawings/worksheetdrawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetViews>
@@ -940,7 +1132,9 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3"/>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
@@ -949,22 +1143,22 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
@@ -975,21 +1169,24 @@
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>15</v>
+      <c r="E3" s="4" t="s">
+        <v>16</v>
       </c>
-      <c r="G3" s="3"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
@@ -998,24 +1195,22 @@
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="G4" s="4"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
@@ -1024,20 +1219,20 @@
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
@@ -1048,18 +1243,18 @@
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
@@ -1070,16 +1265,16 @@
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
@@ -1088,17 +1283,17 @@
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
     </row>
-    <row r="8">
+    <row r="8" ht="21.0" customHeight="1">
       <c r="A8" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="4" t="s">
         <v>34</v>
       </c>
       <c r="G8" s="3"/>
@@ -1108,21 +1303,19 @@
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
     </row>
-    <row r="9">
+    <row r="9" ht="43.5" customHeight="1">
       <c r="A9" s="4" t="s">
         <v>35</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="4"/>
+      <c r="D9" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>38</v>
-      </c>
       <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
+      <c r="F9" s="4"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
@@ -1132,18 +1325,20 @@
     </row>
     <row r="10">
       <c r="A10" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="C10" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="3"/>
       <c r="D10" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
@@ -1154,18 +1349,18 @@
     </row>
     <row r="11">
       <c r="A11" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
@@ -1174,20 +1369,20 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
     </row>
-    <row r="12" ht="33.0" customHeight="1">
+    <row r="12">
       <c r="A12" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
@@ -1196,18 +1391,20 @@
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
     </row>
-    <row r="13">
+    <row r="13" ht="33.0" customHeight="1">
       <c r="A13" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="C13" s="3"/>
+      <c r="D13" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="4" t="s">
         <v>50</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>51</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
@@ -1218,18 +1415,16 @@
     </row>
     <row r="14">
       <c r="A14" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="D14" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" s="5" t="s">
         <v>53</v>
-      </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="4" t="s">
-        <v>54</v>
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
@@ -1239,17 +1434,20 @@
       <c r="L14" s="3"/>
     </row>
     <row r="15">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="C15" s="3"/>
+      <c r="D15" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
@@ -1258,17 +1456,14 @@
       <c r="L15" s="3"/>
     </row>
     <row r="16">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C16" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>60</v>
+      <c r="D16" s="5" t="s">
+        <v>37</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1281,11 +1476,15 @@
     </row>
     <row r="17">
       <c r="A17" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="4" t="s">
         <v>62</v>
       </c>
       <c r="E17" s="3"/>
@@ -1298,14 +1497,13 @@
       <c r="L17" s="3"/>
     </row>
     <row r="18">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>60</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -1320,12 +1518,11 @@
       <c r="A19" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="5" t="s">
+      <c r="B19" s="4" t="s">
         <v>66</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -1337,10 +1534,16 @@
       <c r="L19" s="3"/>
     </row>
     <row r="20">
-      <c r="A20" s="3"/>
+      <c r="A20" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
+      <c r="C20" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>62</v>
+      </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
@@ -15084,23 +15287,37 @@
       <c r="K1001" s="3"/>
       <c r="L1001" s="3"/>
     </row>
+    <row r="1002">
+      <c r="A1002" s="3"/>
+      <c r="B1002" s="3"/>
+      <c r="C1002" s="3"/>
+      <c r="D1002" s="3"/>
+      <c r="E1002" s="3"/>
+      <c r="F1002" s="3"/>
+      <c r="G1002" s="3"/>
+      <c r="H1002" s="3"/>
+      <c r="I1002" s="3"/>
+      <c r="J1002" s="3"/>
+      <c r="K1002" s="3"/>
+      <c r="L1002" s="3"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="D1:D14 D16:D1001">
+  <conditionalFormatting sqref="D1:D15 D17:D1002">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"High"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D1:D14 D16:D1001">
+  <conditionalFormatting sqref="D1:D15 D17:D1002">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D1:D1001">
+  <conditionalFormatting sqref="D1:D1002">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D1001">
+  <conditionalFormatting sqref="D2:D1002">
     <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="?">
       <formula>NOT(ISERROR(SEARCH(("?"),(D2))))</formula>
     </cfRule>
@@ -15122,44 +15339,44 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E3" s="3"/>
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -15168,13 +15385,13 @@
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
@@ -15183,13 +15400,13 @@
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
@@ -15198,11 +15415,11 @@
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -15211,13 +15428,13 @@
     </row>
     <row r="9">
       <c r="A9" s="4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -15226,13 +15443,13 @@
     </row>
     <row r="10">
       <c r="A10" s="4" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -15241,13 +15458,13 @@
     </row>
     <row r="11">
       <c r="A11" s="4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -15269,7 +15486,7 @@
     </row>
     <row r="14">
       <c r="A14" s="9" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I14" s="3"/>
       <c r="M14" s="3"/>
@@ -15289,18 +15506,18 @@
     </row>
     <row r="16">
       <c r="A16" s="10" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B16" s="11"/>
       <c r="C16" s="12"/>
       <c r="E16" s="13" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F16" s="11"/>
       <c r="G16" s="12"/>
       <c r="H16" s="3"/>
       <c r="I16" s="14" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="J16" s="11"/>
       <c r="K16" s="12"/>
@@ -15312,47 +15529,47 @@
     </row>
     <row r="17">
       <c r="A17" s="15" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C17" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="E17" s="15" t="s">
-        <v>96</v>
-      </c>
       <c r="F17" s="15" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G17" s="15" t="s">
-        <v>98</v>
+        <v>6</v>
       </c>
       <c r="I17" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="J17" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="J17" s="15" t="s">
-        <v>97</v>
-      </c>
       <c r="K17" s="15" t="s">
-        <v>98</v>
+        <v>6</v>
       </c>
       <c r="M17" s="3"/>
     </row>
     <row r="18">
       <c r="A18" s="15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C18" s="16"/>
       <c r="E18" s="15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F18" s="15" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G18" s="16"/>
       <c r="I18" s="15"/>
@@ -15362,10 +15579,10 @@
     </row>
     <row r="19">
       <c r="A19" s="15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C19" s="16"/>
       <c r="E19" s="16"/>
@@ -15442,19 +15659,19 @@
     </row>
     <row r="26">
       <c r="A26" s="10" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B26" s="11"/>
       <c r="C26" s="12"/>
       <c r="D26" s="3"/>
       <c r="E26" s="10" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F26" s="11"/>
       <c r="G26" s="12"/>
       <c r="H26" s="3"/>
       <c r="I26" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="J26" s="11"/>
       <c r="K26" s="12"/>
@@ -15466,33 +15683,33 @@
     </row>
     <row r="27">
       <c r="A27" s="15" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>98</v>
+        <v>6</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="15" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F27" s="15" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G27" s="15" t="s">
-        <v>98</v>
+        <v>6</v>
       </c>
       <c r="H27" s="3"/>
       <c r="I27" s="15" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="J27" s="15" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K27" s="15" t="s">
-        <v>98</v>
+        <v>6</v>
       </c>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
@@ -15502,68 +15719,68 @@
     </row>
     <row r="28">
       <c r="A28" s="15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C28" s="16"/>
       <c r="D28" s="3"/>
       <c r="E28" s="15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F28" s="15" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G28" s="16"/>
       <c r="H28" s="3"/>
       <c r="I28" s="15" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="J28" s="15" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K28" s="16"/>
     </row>
     <row r="29">
       <c r="A29" s="15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C29" s="16"/>
       <c r="D29" s="3"/>
       <c r="E29" s="15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F29" s="15" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G29" s="16"/>
       <c r="H29" s="3"/>
       <c r="I29" s="15" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="J29" s="15" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K29" s="16"/>
     </row>
     <row r="30">
       <c r="A30" s="15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C30" s="16"/>
       <c r="D30" s="3"/>
       <c r="E30" s="15" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F30" s="15" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G30" s="16"/>
       <c r="H30" s="3"/>
@@ -15572,8 +15789,12 @@
       <c r="K30" s="16"/>
     </row>
     <row r="31">
-      <c r="A31" s="16"/>
-      <c r="B31" s="16"/>
+      <c r="A31" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>115</v>
+      </c>
       <c r="C31" s="16"/>
       <c r="D31" s="3"/>
       <c r="E31" s="16"/>
@@ -15625,49 +15846,49 @@
     </row>
     <row r="36">
       <c r="A36" s="10" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B36" s="11"/>
       <c r="C36" s="12"/>
       <c r="E36" s="13" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F36" s="11"/>
       <c r="G36" s="12"/>
       <c r="I36" s="13" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="J36" s="11"/>
       <c r="K36" s="12"/>
     </row>
     <row r="37">
       <c r="A37" s="15" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C37" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E37" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="E37" s="15" t="s">
-        <v>96</v>
-      </c>
       <c r="F37" s="15" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G37" s="15" t="s">
-        <v>98</v>
+        <v>6</v>
       </c>
       <c r="H37" s="3"/>
       <c r="I37" s="15" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="J37" s="15" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K37" s="15" t="s">
-        <v>98</v>
+        <v>6</v>
       </c>
       <c r="L37" s="3"/>
       <c r="M37" s="3"/>
@@ -15677,24 +15898,26 @@
     </row>
     <row r="38">
       <c r="A38" s="15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C38" s="16"/>
       <c r="E38" s="15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F38" s="15" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
-      <c r="G38" s="16"/>
+      <c r="G38" s="15" t="s">
+        <v>121</v>
+      </c>
       <c r="I38" s="15" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="J38" s="15" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="K38" s="16"/>
       <c r="L38" s="3"/>
@@ -15708,12 +15931,14 @@
       <c r="B39" s="16"/>
       <c r="C39" s="16"/>
       <c r="E39" s="15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F39" s="15" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
-      <c r="G39" s="16"/>
+      <c r="G39" s="15" t="s">
+        <v>124</v>
+      </c>
       <c r="I39" s="16"/>
       <c r="J39" s="16"/>
       <c r="K39" s="16"/>
@@ -15728,10 +15953,10 @@
       <c r="B40" s="16"/>
       <c r="C40" s="16"/>
       <c r="E40" s="15" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F40" s="15" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G40" s="16"/>
       <c r="I40" s="16"/>
@@ -15748,10 +15973,10 @@
       <c r="B41" s="16"/>
       <c r="C41" s="16"/>
       <c r="E41" s="15" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F41" s="15" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="G41" s="16"/>
       <c r="I41" s="16"/>
@@ -15823,7 +16048,7 @@
     </row>
     <row r="46">
       <c r="A46" s="13" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B46" s="11"/>
       <c r="C46" s="12"/>
@@ -15838,21 +16063,21 @@
     </row>
     <row r="47">
       <c r="A47" s="15" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C47" s="15" t="s">
-        <v>98</v>
+        <v>6</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B48" s="15" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="C48" s="16"/>
     </row>
@@ -15949,7 +16174,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2">
@@ -15957,7 +16182,7 @@
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4">
@@ -15965,7 +16190,7 @@
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6">
@@ -15973,7 +16198,7 @@
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8">
@@ -18972,12 +19197,12 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="17" t="s">
-        <v>127</v>
+      <c r="A1" s="18" t="s">
+        <v>132</v>
       </c>
       <c r="B1" s="3"/>
-      <c r="C1" s="17" t="s">
-        <v>128</v>
+      <c r="C1" s="18" t="s">
+        <v>133</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
@@ -18989,7 +19214,7 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -19003,13 +19228,13 @@
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -19033,13 +19258,13 @@
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -19063,7 +19288,7 @@
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B7" s="4">
         <v>1.8</v>
@@ -19091,10 +19316,10 @@
     </row>
     <row r="9">
       <c r="A9" s="4" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -19119,10 +19344,10 @@
     </row>
     <row r="11">
       <c r="A11" s="4" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -19147,10 +19372,10 @@
     </row>
     <row r="13">
       <c r="A13" s="4" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -19175,10 +19400,10 @@
     </row>
     <row r="15">
       <c r="A15" s="4" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -19203,9 +19428,11 @@
     </row>
     <row r="17">
       <c r="A17" s="4" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
-      <c r="B17" s="3"/>
+      <c r="B17" s="4" t="s">
+        <v>136</v>
+      </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
@@ -19228,8 +19455,12 @@
       <c r="J18" s="3"/>
     </row>
     <row r="19">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
+      <c r="A19" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>152</v>
+      </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
@@ -19252,8 +19483,12 @@
       <c r="J20" s="3"/>
     </row>
     <row r="21">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
+      <c r="A21" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>154</v>
+      </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
@@ -19276,7 +19511,9 @@
       <c r="J22" s="3"/>
     </row>
     <row r="23">
-      <c r="A23" s="3"/>
+      <c r="A23" s="4" t="s">
+        <v>155</v>
+      </c>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -19300,7 +19537,9 @@
       <c r="J24" s="3"/>
     </row>
     <row r="25">
-      <c r="A25" s="3"/>
+      <c r="A25" s="4" t="s">
+        <v>156</v>
+      </c>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -31024,3082 +31263,4161 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="65.14"/>
+    <col customWidth="1" min="7" max="7" width="46.57"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
+      <c r="G1" s="3"/>
     </row>
     <row r="2">
       <c r="F2" s="5" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
+      <c r="G2" s="3"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
+      <c r="G3" s="3"/>
     </row>
     <row r="4">
-      <c r="A4" s="17" t="s">
-        <v>68</v>
+      <c r="A4" s="18" t="s">
+        <v>70</v>
       </c>
-      <c r="B4" s="18" t="s">
-        <v>149</v>
+      <c r="B4" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
-      <c r="B5" s="19" t="s">
-        <v>151</v>
+      <c r="B5" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
-      <c r="B6" s="20" t="s">
-        <v>153</v>
+      <c r="B6" s="21" t="s">
+        <v>166</v>
       </c>
+      <c r="G6" s="3"/>
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
-      <c r="B7" s="20" t="s">
-        <v>155</v>
+      <c r="B7" s="21" t="s">
+        <v>168</v>
       </c>
+      <c r="G7" s="3"/>
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
-      <c r="B8" s="20" t="s">
-        <v>157</v>
+      <c r="B8" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="4" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
-      <c r="B9" s="20" t="s">
-        <v>159</v>
+      <c r="B9" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>186</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="G16" s="3"/>
+    </row>
+    <row r="17">
+      <c r="G17" s="3"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="G18" s="3"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19" s="19" t="s">
         <v>160</v>
       </c>
-      <c r="B10" s="20" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="5" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="B12" s="20" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="B19" s="18" t="s">
-        <v>149</v>
-      </c>
+      <c r="G19" s="3"/>
     </row>
     <row r="20">
       <c r="A20" s="4" t="s">
-        <v>166</v>
+        <v>189</v>
       </c>
-      <c r="B20" s="20" t="s">
-        <v>167</v>
+      <c r="B20" s="21" t="s">
+        <v>190</v>
       </c>
+      <c r="G20" s="3"/>
     </row>
     <row r="21">
       <c r="A21" s="4" t="s">
-        <v>168</v>
+        <v>191</v>
       </c>
-      <c r="B21" s="20" t="s">
-        <v>169</v>
+      <c r="B21" s="21" t="s">
+        <v>192</v>
       </c>
+      <c r="G21" s="3"/>
     </row>
     <row r="22">
       <c r="A22" s="4" t="s">
-        <v>170</v>
+        <v>193</v>
       </c>
-      <c r="B22" s="20" t="s">
-        <v>171</v>
+      <c r="B22" s="21" t="s">
+        <v>194</v>
       </c>
+      <c r="G22" s="3"/>
     </row>
     <row r="23">
       <c r="A23" s="4" t="s">
-        <v>172</v>
+        <v>195</v>
       </c>
-      <c r="B23" s="20" t="s">
-        <v>173</v>
+      <c r="B23" s="21" t="s">
+        <v>196</v>
       </c>
+      <c r="G23" s="3"/>
     </row>
     <row r="24">
       <c r="A24" s="4" t="s">
-        <v>174</v>
+        <v>197</v>
       </c>
-      <c r="B24" s="20" t="s">
-        <v>175</v>
+      <c r="B24" s="21" t="s">
+        <v>198</v>
       </c>
+      <c r="G24" s="3"/>
     </row>
     <row r="25">
       <c r="A25" s="4" t="s">
-        <v>176</v>
+        <v>199</v>
       </c>
-      <c r="B25" s="20" t="s">
-        <v>177</v>
+      <c r="B25" s="21" t="s">
+        <v>200</v>
       </c>
+      <c r="G25" s="3"/>
     </row>
     <row r="26">
       <c r="A26" s="4" t="s">
-        <v>178</v>
+        <v>201</v>
       </c>
-      <c r="B26" s="20" t="s">
-        <v>179</v>
+      <c r="B26" s="21" t="s">
+        <v>202</v>
       </c>
+      <c r="G26" s="3"/>
     </row>
     <row r="27">
       <c r="A27" s="3"/>
+      <c r="G27" s="3"/>
     </row>
     <row r="28">
-      <c r="A28" s="3"/>
+      <c r="A28" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="G28" s="3"/>
     </row>
     <row r="29">
-      <c r="A29" s="3"/>
+      <c r="A29" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="B29" s="22" t="s">
+        <v>205</v>
+      </c>
+      <c r="G29" s="3"/>
     </row>
     <row r="30">
-      <c r="A30" s="3"/>
+      <c r="A30" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="B30" s="22" t="s">
+        <v>207</v>
+      </c>
+      <c r="G30" s="3"/>
     </row>
     <row r="31">
-      <c r="A31" s="3"/>
+      <c r="A31" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="B31" s="22" t="s">
+        <v>209</v>
+      </c>
+      <c r="G31" s="3"/>
     </row>
     <row r="32">
-      <c r="A32" s="3"/>
+      <c r="A32" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="B32" s="22" t="s">
+        <v>211</v>
+      </c>
+      <c r="G32" s="3"/>
     </row>
     <row r="33">
-      <c r="A33" s="3"/>
+      <c r="A33" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="B33" s="21" t="s">
+        <v>213</v>
+      </c>
+      <c r="G33" s="3"/>
     </row>
     <row r="34">
-      <c r="A34" s="3"/>
+      <c r="A34" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="B34" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="G34" s="3"/>
     </row>
     <row r="35">
       <c r="A35" s="3"/>
+      <c r="G35" s="3"/>
     </row>
     <row r="36">
       <c r="A36" s="3"/>
+      <c r="G36" s="3"/>
     </row>
     <row r="37">
-      <c r="A37" s="3"/>
+      <c r="A37" s="23" t="s">
+        <v>216</v>
+      </c>
+      <c r="G37" s="3"/>
     </row>
     <row r="38">
-      <c r="A38" s="3"/>
+      <c r="A38" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="B38" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="G38" s="3"/>
     </row>
     <row r="39">
       <c r="A39" s="3"/>
+      <c r="G39" s="3"/>
     </row>
     <row r="40">
       <c r="A40" s="3"/>
+      <c r="G40" s="3"/>
     </row>
     <row r="41">
       <c r="A41" s="3"/>
+      <c r="G41" s="3"/>
     </row>
     <row r="42">
       <c r="A42" s="3"/>
+      <c r="G42" s="3"/>
     </row>
     <row r="43">
       <c r="A43" s="3"/>
+      <c r="G43" s="3"/>
     </row>
     <row r="44">
       <c r="A44" s="3"/>
+      <c r="G44" s="3"/>
     </row>
     <row r="45">
       <c r="A45" s="3"/>
+      <c r="G45" s="3"/>
     </row>
     <row r="46">
       <c r="A46" s="3"/>
+      <c r="G46" s="3"/>
     </row>
     <row r="47">
       <c r="A47" s="3"/>
+      <c r="G47" s="3"/>
     </row>
     <row r="48">
       <c r="A48" s="3"/>
+      <c r="G48" s="3"/>
     </row>
     <row r="49">
       <c r="A49" s="3"/>
+      <c r="G49" s="3"/>
     </row>
     <row r="50">
       <c r="A50" s="3"/>
+      <c r="G50" s="3"/>
     </row>
     <row r="51">
       <c r="A51" s="3"/>
+      <c r="G51" s="3"/>
     </row>
     <row r="52">
       <c r="A52" s="3"/>
+      <c r="G52" s="3"/>
     </row>
     <row r="53">
       <c r="A53" s="3"/>
+      <c r="G53" s="3"/>
     </row>
     <row r="54">
       <c r="A54" s="3"/>
+      <c r="G54" s="3"/>
     </row>
     <row r="55">
       <c r="A55" s="3"/>
+      <c r="G55" s="3"/>
     </row>
     <row r="56">
       <c r="A56" s="3"/>
+      <c r="G56" s="3"/>
     </row>
     <row r="57">
       <c r="A57" s="3"/>
+      <c r="G57" s="3"/>
     </row>
     <row r="58">
       <c r="A58" s="3"/>
+      <c r="G58" s="3"/>
     </row>
     <row r="59">
       <c r="A59" s="3"/>
+      <c r="G59" s="3"/>
     </row>
     <row r="60">
       <c r="A60" s="3"/>
+      <c r="G60" s="3"/>
     </row>
     <row r="61">
       <c r="A61" s="3"/>
+      <c r="G61" s="3"/>
     </row>
     <row r="62">
       <c r="A62" s="3"/>
+      <c r="G62" s="3"/>
     </row>
     <row r="63">
       <c r="A63" s="3"/>
+      <c r="G63" s="3"/>
     </row>
     <row r="64">
       <c r="A64" s="3"/>
+      <c r="G64" s="3"/>
     </row>
     <row r="65">
       <c r="A65" s="3"/>
+      <c r="G65" s="3"/>
     </row>
     <row r="66">
       <c r="A66" s="3"/>
+      <c r="G66" s="3"/>
     </row>
     <row r="67">
       <c r="A67" s="3"/>
+      <c r="G67" s="3"/>
     </row>
     <row r="68">
       <c r="A68" s="3"/>
+      <c r="G68" s="3"/>
     </row>
     <row r="69">
       <c r="A69" s="3"/>
+      <c r="G69" s="3"/>
     </row>
     <row r="70">
       <c r="A70" s="3"/>
+      <c r="G70" s="3"/>
     </row>
     <row r="71">
       <c r="A71" s="3"/>
+      <c r="G71" s="3"/>
     </row>
     <row r="72">
       <c r="A72" s="3"/>
+      <c r="G72" s="3"/>
     </row>
     <row r="73">
       <c r="A73" s="3"/>
+      <c r="G73" s="3"/>
     </row>
     <row r="74">
       <c r="A74" s="3"/>
+      <c r="G74" s="3"/>
     </row>
     <row r="75">
       <c r="A75" s="3"/>
+      <c r="G75" s="3"/>
     </row>
     <row r="76">
       <c r="A76" s="3"/>
+      <c r="G76" s="3"/>
     </row>
     <row r="77">
       <c r="A77" s="3"/>
+      <c r="G77" s="3"/>
     </row>
     <row r="78">
       <c r="A78" s="3"/>
+      <c r="G78" s="3"/>
     </row>
     <row r="79">
       <c r="A79" s="3"/>
+      <c r="G79" s="3"/>
     </row>
     <row r="80">
       <c r="A80" s="3"/>
+      <c r="G80" s="3"/>
     </row>
     <row r="81">
       <c r="A81" s="3"/>
+      <c r="G81" s="3"/>
     </row>
     <row r="82">
       <c r="A82" s="3"/>
+      <c r="G82" s="3"/>
     </row>
     <row r="83">
       <c r="A83" s="3"/>
+      <c r="G83" s="3"/>
     </row>
     <row r="84">
       <c r="A84" s="3"/>
+      <c r="G84" s="3"/>
     </row>
     <row r="85">
       <c r="A85" s="3"/>
+      <c r="G85" s="3"/>
     </row>
     <row r="86">
       <c r="A86" s="3"/>
+      <c r="G86" s="3"/>
     </row>
     <row r="87">
       <c r="A87" s="3"/>
+      <c r="G87" s="3"/>
     </row>
     <row r="88">
       <c r="A88" s="3"/>
+      <c r="G88" s="3"/>
     </row>
     <row r="89">
       <c r="A89" s="3"/>
+      <c r="G89" s="3"/>
     </row>
     <row r="90">
       <c r="A90" s="3"/>
+      <c r="G90" s="3"/>
     </row>
     <row r="91">
       <c r="A91" s="3"/>
+      <c r="G91" s="3"/>
     </row>
     <row r="92">
       <c r="A92" s="3"/>
+      <c r="G92" s="3"/>
     </row>
     <row r="93">
       <c r="A93" s="3"/>
+      <c r="G93" s="3"/>
     </row>
     <row r="94">
       <c r="A94" s="3"/>
+      <c r="G94" s="3"/>
     </row>
     <row r="95">
       <c r="A95" s="3"/>
+      <c r="G95" s="3"/>
     </row>
     <row r="96">
       <c r="A96" s="3"/>
+      <c r="G96" s="3"/>
     </row>
     <row r="97">
       <c r="A97" s="3"/>
+      <c r="G97" s="3"/>
     </row>
     <row r="98">
       <c r="A98" s="3"/>
+      <c r="G98" s="3"/>
     </row>
     <row r="99">
       <c r="A99" s="3"/>
+      <c r="G99" s="3"/>
     </row>
     <row r="100">
       <c r="A100" s="3"/>
+      <c r="G100" s="3"/>
     </row>
     <row r="101">
       <c r="A101" s="3"/>
+      <c r="G101" s="3"/>
     </row>
     <row r="102">
       <c r="A102" s="3"/>
+      <c r="G102" s="3"/>
     </row>
     <row r="103">
       <c r="A103" s="3"/>
+      <c r="G103" s="3"/>
     </row>
     <row r="104">
       <c r="A104" s="3"/>
+      <c r="G104" s="3"/>
     </row>
     <row r="105">
       <c r="A105" s="3"/>
+      <c r="G105" s="3"/>
     </row>
     <row r="106">
       <c r="A106" s="3"/>
+      <c r="G106" s="3"/>
     </row>
     <row r="107">
       <c r="A107" s="3"/>
+      <c r="G107" s="3"/>
     </row>
     <row r="108">
       <c r="A108" s="3"/>
+      <c r="G108" s="3"/>
     </row>
     <row r="109">
       <c r="A109" s="3"/>
+      <c r="G109" s="3"/>
     </row>
     <row r="110">
       <c r="A110" s="3"/>
+      <c r="G110" s="3"/>
     </row>
     <row r="111">
       <c r="A111" s="3"/>
+      <c r="G111" s="3"/>
     </row>
     <row r="112">
       <c r="A112" s="3"/>
+      <c r="G112" s="3"/>
     </row>
     <row r="113">
       <c r="A113" s="3"/>
+      <c r="G113" s="3"/>
     </row>
     <row r="114">
       <c r="A114" s="3"/>
+      <c r="G114" s="3"/>
     </row>
     <row r="115">
       <c r="A115" s="3"/>
+      <c r="G115" s="3"/>
     </row>
     <row r="116">
       <c r="A116" s="3"/>
+      <c r="G116" s="3"/>
     </row>
     <row r="117">
       <c r="A117" s="3"/>
+      <c r="G117" s="3"/>
     </row>
     <row r="118">
       <c r="A118" s="3"/>
+      <c r="G118" s="3"/>
     </row>
     <row r="119">
       <c r="A119" s="3"/>
+      <c r="G119" s="3"/>
     </row>
     <row r="120">
       <c r="A120" s="3"/>
+      <c r="G120" s="3"/>
     </row>
     <row r="121">
       <c r="A121" s="3"/>
+      <c r="G121" s="3"/>
     </row>
     <row r="122">
       <c r="A122" s="3"/>
+      <c r="G122" s="3"/>
     </row>
     <row r="123">
       <c r="A123" s="3"/>
+      <c r="G123" s="3"/>
     </row>
     <row r="124">
       <c r="A124" s="3"/>
+      <c r="G124" s="3"/>
     </row>
     <row r="125">
       <c r="A125" s="3"/>
+      <c r="G125" s="3"/>
     </row>
     <row r="126">
       <c r="A126" s="3"/>
+      <c r="G126" s="3"/>
     </row>
     <row r="127">
       <c r="A127" s="3"/>
+      <c r="G127" s="3"/>
     </row>
     <row r="128">
       <c r="A128" s="3"/>
+      <c r="G128" s="3"/>
     </row>
     <row r="129">
       <c r="A129" s="3"/>
+      <c r="G129" s="3"/>
     </row>
     <row r="130">
       <c r="A130" s="3"/>
+      <c r="G130" s="3"/>
     </row>
     <row r="131">
       <c r="A131" s="3"/>
+      <c r="G131" s="3"/>
     </row>
     <row r="132">
       <c r="A132" s="3"/>
+      <c r="G132" s="3"/>
     </row>
     <row r="133">
       <c r="A133" s="3"/>
+      <c r="G133" s="3"/>
     </row>
     <row r="134">
       <c r="A134" s="3"/>
+      <c r="G134" s="3"/>
     </row>
     <row r="135">
       <c r="A135" s="3"/>
+      <c r="G135" s="3"/>
     </row>
     <row r="136">
       <c r="A136" s="3"/>
+      <c r="G136" s="3"/>
     </row>
     <row r="137">
       <c r="A137" s="3"/>
+      <c r="G137" s="3"/>
     </row>
     <row r="138">
       <c r="A138" s="3"/>
+      <c r="G138" s="3"/>
     </row>
     <row r="139">
       <c r="A139" s="3"/>
+      <c r="G139" s="3"/>
     </row>
     <row r="140">
       <c r="A140" s="3"/>
+      <c r="G140" s="3"/>
     </row>
     <row r="141">
       <c r="A141" s="3"/>
+      <c r="G141" s="3"/>
     </row>
     <row r="142">
       <c r="A142" s="3"/>
+      <c r="G142" s="3"/>
     </row>
     <row r="143">
       <c r="A143" s="3"/>
+      <c r="G143" s="3"/>
     </row>
     <row r="144">
       <c r="A144" s="3"/>
+      <c r="G144" s="3"/>
     </row>
     <row r="145">
       <c r="A145" s="3"/>
+      <c r="G145" s="3"/>
     </row>
     <row r="146">
       <c r="A146" s="3"/>
+      <c r="G146" s="3"/>
     </row>
     <row r="147">
       <c r="A147" s="3"/>
+      <c r="G147" s="3"/>
     </row>
     <row r="148">
       <c r="A148" s="3"/>
+      <c r="G148" s="3"/>
     </row>
     <row r="149">
       <c r="A149" s="3"/>
+      <c r="G149" s="3"/>
     </row>
     <row r="150">
       <c r="A150" s="3"/>
+      <c r="G150" s="3"/>
     </row>
     <row r="151">
       <c r="A151" s="3"/>
+      <c r="G151" s="3"/>
     </row>
     <row r="152">
       <c r="A152" s="3"/>
+      <c r="G152" s="3"/>
     </row>
     <row r="153">
       <c r="A153" s="3"/>
+      <c r="G153" s="3"/>
     </row>
     <row r="154">
       <c r="A154" s="3"/>
+      <c r="G154" s="3"/>
     </row>
     <row r="155">
       <c r="A155" s="3"/>
+      <c r="G155" s="3"/>
     </row>
     <row r="156">
       <c r="A156" s="3"/>
+      <c r="G156" s="3"/>
     </row>
     <row r="157">
       <c r="A157" s="3"/>
+      <c r="G157" s="3"/>
     </row>
     <row r="158">
       <c r="A158" s="3"/>
+      <c r="G158" s="3"/>
     </row>
     <row r="159">
       <c r="A159" s="3"/>
+      <c r="G159" s="3"/>
     </row>
     <row r="160">
       <c r="A160" s="3"/>
+      <c r="G160" s="3"/>
     </row>
     <row r="161">
       <c r="A161" s="3"/>
+      <c r="G161" s="3"/>
     </row>
     <row r="162">
       <c r="A162" s="3"/>
+      <c r="G162" s="3"/>
     </row>
     <row r="163">
       <c r="A163" s="3"/>
+      <c r="G163" s="3"/>
     </row>
     <row r="164">
       <c r="A164" s="3"/>
+      <c r="G164" s="3"/>
     </row>
     <row r="165">
       <c r="A165" s="3"/>
+      <c r="G165" s="3"/>
     </row>
     <row r="166">
       <c r="A166" s="3"/>
+      <c r="G166" s="3"/>
     </row>
     <row r="167">
       <c r="A167" s="3"/>
+      <c r="G167" s="3"/>
     </row>
     <row r="168">
       <c r="A168" s="3"/>
+      <c r="G168" s="3"/>
     </row>
     <row r="169">
       <c r="A169" s="3"/>
+      <c r="G169" s="3"/>
     </row>
     <row r="170">
       <c r="A170" s="3"/>
+      <c r="G170" s="3"/>
     </row>
     <row r="171">
       <c r="A171" s="3"/>
+      <c r="G171" s="3"/>
     </row>
     <row r="172">
       <c r="A172" s="3"/>
+      <c r="G172" s="3"/>
     </row>
     <row r="173">
       <c r="A173" s="3"/>
+      <c r="G173" s="3"/>
     </row>
     <row r="174">
       <c r="A174" s="3"/>
+      <c r="G174" s="3"/>
     </row>
     <row r="175">
       <c r="A175" s="3"/>
+      <c r="G175" s="3"/>
     </row>
     <row r="176">
       <c r="A176" s="3"/>
+      <c r="G176" s="3"/>
     </row>
     <row r="177">
       <c r="A177" s="3"/>
+      <c r="G177" s="3"/>
     </row>
     <row r="178">
       <c r="A178" s="3"/>
+      <c r="G178" s="3"/>
     </row>
     <row r="179">
       <c r="A179" s="3"/>
+      <c r="G179" s="3"/>
     </row>
     <row r="180">
       <c r="A180" s="3"/>
+      <c r="G180" s="3"/>
     </row>
     <row r="181">
       <c r="A181" s="3"/>
+      <c r="G181" s="3"/>
     </row>
     <row r="182">
       <c r="A182" s="3"/>
+      <c r="G182" s="3"/>
     </row>
     <row r="183">
       <c r="A183" s="3"/>
+      <c r="G183" s="3"/>
     </row>
     <row r="184">
       <c r="A184" s="3"/>
+      <c r="G184" s="3"/>
     </row>
     <row r="185">
       <c r="A185" s="3"/>
+      <c r="G185" s="3"/>
     </row>
     <row r="186">
       <c r="A186" s="3"/>
+      <c r="G186" s="3"/>
     </row>
     <row r="187">
       <c r="A187" s="3"/>
+      <c r="G187" s="3"/>
     </row>
     <row r="188">
       <c r="A188" s="3"/>
+      <c r="G188" s="3"/>
     </row>
     <row r="189">
       <c r="A189" s="3"/>
+      <c r="G189" s="3"/>
     </row>
     <row r="190">
       <c r="A190" s="3"/>
+      <c r="G190" s="3"/>
     </row>
     <row r="191">
       <c r="A191" s="3"/>
+      <c r="G191" s="3"/>
     </row>
     <row r="192">
       <c r="A192" s="3"/>
+      <c r="G192" s="3"/>
     </row>
     <row r="193">
       <c r="A193" s="3"/>
+      <c r="G193" s="3"/>
     </row>
     <row r="194">
       <c r="A194" s="3"/>
+      <c r="G194" s="3"/>
     </row>
     <row r="195">
       <c r="A195" s="3"/>
+      <c r="G195" s="3"/>
     </row>
     <row r="196">
       <c r="A196" s="3"/>
+      <c r="G196" s="3"/>
     </row>
     <row r="197">
       <c r="A197" s="3"/>
+      <c r="G197" s="3"/>
     </row>
     <row r="198">
       <c r="A198" s="3"/>
+      <c r="G198" s="3"/>
     </row>
     <row r="199">
       <c r="A199" s="3"/>
+      <c r="G199" s="3"/>
     </row>
     <row r="200">
       <c r="A200" s="3"/>
+      <c r="G200" s="3"/>
     </row>
     <row r="201">
       <c r="A201" s="3"/>
+      <c r="G201" s="3"/>
     </row>
     <row r="202">
       <c r="A202" s="3"/>
+      <c r="G202" s="3"/>
     </row>
     <row r="203">
       <c r="A203" s="3"/>
+      <c r="G203" s="3"/>
     </row>
     <row r="204">
       <c r="A204" s="3"/>
+      <c r="G204" s="3"/>
     </row>
     <row r="205">
       <c r="A205" s="3"/>
+      <c r="G205" s="3"/>
     </row>
     <row r="206">
       <c r="A206" s="3"/>
+      <c r="G206" s="3"/>
     </row>
     <row r="207">
       <c r="A207" s="3"/>
+      <c r="G207" s="3"/>
     </row>
     <row r="208">
       <c r="A208" s="3"/>
+      <c r="G208" s="3"/>
     </row>
     <row r="209">
       <c r="A209" s="3"/>
+      <c r="G209" s="3"/>
     </row>
     <row r="210">
       <c r="A210" s="3"/>
+      <c r="G210" s="3"/>
     </row>
     <row r="211">
       <c r="A211" s="3"/>
+      <c r="G211" s="3"/>
     </row>
     <row r="212">
       <c r="A212" s="3"/>
+      <c r="G212" s="3"/>
     </row>
     <row r="213">
       <c r="A213" s="3"/>
+      <c r="G213" s="3"/>
     </row>
     <row r="214">
       <c r="A214" s="3"/>
+      <c r="G214" s="3"/>
     </row>
     <row r="215">
       <c r="A215" s="3"/>
+      <c r="G215" s="3"/>
     </row>
     <row r="216">
       <c r="A216" s="3"/>
+      <c r="G216" s="3"/>
     </row>
     <row r="217">
       <c r="A217" s="3"/>
+      <c r="G217" s="3"/>
     </row>
     <row r="218">
       <c r="A218" s="3"/>
+      <c r="G218" s="3"/>
     </row>
     <row r="219">
       <c r="A219" s="3"/>
+      <c r="G219" s="3"/>
     </row>
     <row r="220">
       <c r="A220" s="3"/>
+      <c r="G220" s="3"/>
     </row>
     <row r="221">
       <c r="A221" s="3"/>
+      <c r="G221" s="3"/>
     </row>
     <row r="222">
       <c r="A222" s="3"/>
+      <c r="G222" s="3"/>
     </row>
     <row r="223">
       <c r="A223" s="3"/>
+      <c r="G223" s="3"/>
     </row>
     <row r="224">
       <c r="A224" s="3"/>
+      <c r="G224" s="3"/>
     </row>
     <row r="225">
       <c r="A225" s="3"/>
+      <c r="G225" s="3"/>
     </row>
     <row r="226">
       <c r="A226" s="3"/>
+      <c r="G226" s="3"/>
     </row>
     <row r="227">
       <c r="A227" s="3"/>
+      <c r="G227" s="3"/>
     </row>
     <row r="228">
       <c r="A228" s="3"/>
+      <c r="G228" s="3"/>
     </row>
     <row r="229">
       <c r="A229" s="3"/>
+      <c r="G229" s="3"/>
     </row>
     <row r="230">
       <c r="A230" s="3"/>
+      <c r="G230" s="3"/>
     </row>
     <row r="231">
       <c r="A231" s="3"/>
+      <c r="G231" s="3"/>
     </row>
     <row r="232">
       <c r="A232" s="3"/>
+      <c r="G232" s="3"/>
     </row>
     <row r="233">
       <c r="A233" s="3"/>
+      <c r="G233" s="3"/>
     </row>
     <row r="234">
       <c r="A234" s="3"/>
+      <c r="G234" s="3"/>
     </row>
     <row r="235">
       <c r="A235" s="3"/>
+      <c r="G235" s="3"/>
     </row>
     <row r="236">
       <c r="A236" s="3"/>
+      <c r="G236" s="3"/>
     </row>
     <row r="237">
       <c r="A237" s="3"/>
+      <c r="G237" s="3"/>
     </row>
     <row r="238">
       <c r="A238" s="3"/>
+      <c r="G238" s="3"/>
     </row>
     <row r="239">
       <c r="A239" s="3"/>
+      <c r="G239" s="3"/>
     </row>
     <row r="240">
       <c r="A240" s="3"/>
+      <c r="G240" s="3"/>
     </row>
     <row r="241">
       <c r="A241" s="3"/>
+      <c r="G241" s="3"/>
     </row>
     <row r="242">
       <c r="A242" s="3"/>
+      <c r="G242" s="3"/>
     </row>
     <row r="243">
       <c r="A243" s="3"/>
+      <c r="G243" s="3"/>
     </row>
     <row r="244">
       <c r="A244" s="3"/>
+      <c r="G244" s="3"/>
     </row>
     <row r="245">
       <c r="A245" s="3"/>
+      <c r="G245" s="3"/>
     </row>
     <row r="246">
       <c r="A246" s="3"/>
+      <c r="G246" s="3"/>
     </row>
     <row r="247">
       <c r="A247" s="3"/>
+      <c r="G247" s="3"/>
     </row>
     <row r="248">
       <c r="A248" s="3"/>
+      <c r="G248" s="3"/>
     </row>
     <row r="249">
       <c r="A249" s="3"/>
+      <c r="G249" s="3"/>
     </row>
     <row r="250">
       <c r="A250" s="3"/>
+      <c r="G250" s="3"/>
     </row>
     <row r="251">
       <c r="A251" s="3"/>
+      <c r="G251" s="3"/>
     </row>
     <row r="252">
       <c r="A252" s="3"/>
+      <c r="G252" s="3"/>
     </row>
     <row r="253">
       <c r="A253" s="3"/>
+      <c r="G253" s="3"/>
     </row>
     <row r="254">
       <c r="A254" s="3"/>
+      <c r="G254" s="3"/>
     </row>
     <row r="255">
       <c r="A255" s="3"/>
+      <c r="G255" s="3"/>
     </row>
     <row r="256">
       <c r="A256" s="3"/>
+      <c r="G256" s="3"/>
     </row>
     <row r="257">
       <c r="A257" s="3"/>
+      <c r="G257" s="3"/>
     </row>
     <row r="258">
       <c r="A258" s="3"/>
+      <c r="G258" s="3"/>
     </row>
     <row r="259">
       <c r="A259" s="3"/>
+      <c r="G259" s="3"/>
     </row>
     <row r="260">
       <c r="A260" s="3"/>
+      <c r="G260" s="3"/>
     </row>
     <row r="261">
       <c r="A261" s="3"/>
+      <c r="G261" s="3"/>
     </row>
     <row r="262">
       <c r="A262" s="3"/>
+      <c r="G262" s="3"/>
     </row>
     <row r="263">
       <c r="A263" s="3"/>
+      <c r="G263" s="3"/>
     </row>
     <row r="264">
       <c r="A264" s="3"/>
+      <c r="G264" s="3"/>
     </row>
     <row r="265">
       <c r="A265" s="3"/>
+      <c r="G265" s="3"/>
     </row>
     <row r="266">
       <c r="A266" s="3"/>
+      <c r="G266" s="3"/>
     </row>
     <row r="267">
       <c r="A267" s="3"/>
+      <c r="G267" s="3"/>
     </row>
     <row r="268">
       <c r="A268" s="3"/>
+      <c r="G268" s="3"/>
     </row>
     <row r="269">
       <c r="A269" s="3"/>
+      <c r="G269" s="3"/>
     </row>
     <row r="270">
       <c r="A270" s="3"/>
+      <c r="G270" s="3"/>
     </row>
     <row r="271">
       <c r="A271" s="3"/>
+      <c r="G271" s="3"/>
     </row>
     <row r="272">
       <c r="A272" s="3"/>
+      <c r="G272" s="3"/>
     </row>
     <row r="273">
       <c r="A273" s="3"/>
+      <c r="G273" s="3"/>
     </row>
     <row r="274">
       <c r="A274" s="3"/>
+      <c r="G274" s="3"/>
     </row>
     <row r="275">
       <c r="A275" s="3"/>
+      <c r="G275" s="3"/>
     </row>
     <row r="276">
       <c r="A276" s="3"/>
+      <c r="G276" s="3"/>
     </row>
     <row r="277">
       <c r="A277" s="3"/>
+      <c r="G277" s="3"/>
     </row>
     <row r="278">
       <c r="A278" s="3"/>
+      <c r="G278" s="3"/>
     </row>
     <row r="279">
       <c r="A279" s="3"/>
+      <c r="G279" s="3"/>
     </row>
     <row r="280">
       <c r="A280" s="3"/>
+      <c r="G280" s="3"/>
     </row>
     <row r="281">
       <c r="A281" s="3"/>
+      <c r="G281" s="3"/>
     </row>
     <row r="282">
       <c r="A282" s="3"/>
+      <c r="G282" s="3"/>
     </row>
     <row r="283">
       <c r="A283" s="3"/>
+      <c r="G283" s="3"/>
     </row>
     <row r="284">
       <c r="A284" s="3"/>
+      <c r="G284" s="3"/>
     </row>
     <row r="285">
       <c r="A285" s="3"/>
+      <c r="G285" s="3"/>
     </row>
     <row r="286">
       <c r="A286" s="3"/>
+      <c r="G286" s="3"/>
     </row>
     <row r="287">
       <c r="A287" s="3"/>
+      <c r="G287" s="3"/>
     </row>
     <row r="288">
       <c r="A288" s="3"/>
+      <c r="G288" s="3"/>
     </row>
     <row r="289">
       <c r="A289" s="3"/>
+      <c r="G289" s="3"/>
     </row>
     <row r="290">
       <c r="A290" s="3"/>
+      <c r="G290" s="3"/>
     </row>
     <row r="291">
       <c r="A291" s="3"/>
+      <c r="G291" s="3"/>
     </row>
     <row r="292">
       <c r="A292" s="3"/>
+      <c r="G292" s="3"/>
     </row>
     <row r="293">
       <c r="A293" s="3"/>
+      <c r="G293" s="3"/>
     </row>
     <row r="294">
       <c r="A294" s="3"/>
+      <c r="G294" s="3"/>
     </row>
     <row r="295">
       <c r="A295" s="3"/>
+      <c r="G295" s="3"/>
     </row>
     <row r="296">
       <c r="A296" s="3"/>
+      <c r="G296" s="3"/>
     </row>
     <row r="297">
       <c r="A297" s="3"/>
+      <c r="G297" s="3"/>
     </row>
     <row r="298">
       <c r="A298" s="3"/>
+      <c r="G298" s="3"/>
     </row>
     <row r="299">
       <c r="A299" s="3"/>
+      <c r="G299" s="3"/>
     </row>
     <row r="300">
       <c r="A300" s="3"/>
+      <c r="G300" s="3"/>
     </row>
     <row r="301">
       <c r="A301" s="3"/>
+      <c r="G301" s="3"/>
     </row>
     <row r="302">
       <c r="A302" s="3"/>
+      <c r="G302" s="3"/>
     </row>
     <row r="303">
       <c r="A303" s="3"/>
+      <c r="G303" s="3"/>
     </row>
     <row r="304">
       <c r="A304" s="3"/>
+      <c r="G304" s="3"/>
     </row>
     <row r="305">
       <c r="A305" s="3"/>
+      <c r="G305" s="3"/>
     </row>
     <row r="306">
       <c r="A306" s="3"/>
+      <c r="G306" s="3"/>
     </row>
     <row r="307">
       <c r="A307" s="3"/>
+      <c r="G307" s="3"/>
     </row>
     <row r="308">
       <c r="A308" s="3"/>
+      <c r="G308" s="3"/>
     </row>
     <row r="309">
       <c r="A309" s="3"/>
+      <c r="G309" s="3"/>
     </row>
     <row r="310">
       <c r="A310" s="3"/>
+      <c r="G310" s="3"/>
     </row>
     <row r="311">
       <c r="A311" s="3"/>
+      <c r="G311" s="3"/>
     </row>
     <row r="312">
       <c r="A312" s="3"/>
+      <c r="G312" s="3"/>
     </row>
     <row r="313">
       <c r="A313" s="3"/>
+      <c r="G313" s="3"/>
     </row>
     <row r="314">
       <c r="A314" s="3"/>
+      <c r="G314" s="3"/>
     </row>
     <row r="315">
       <c r="A315" s="3"/>
+      <c r="G315" s="3"/>
     </row>
     <row r="316">
       <c r="A316" s="3"/>
+      <c r="G316" s="3"/>
     </row>
     <row r="317">
       <c r="A317" s="3"/>
+      <c r="G317" s="3"/>
     </row>
     <row r="318">
       <c r="A318" s="3"/>
+      <c r="G318" s="3"/>
     </row>
     <row r="319">
       <c r="A319" s="3"/>
+      <c r="G319" s="3"/>
     </row>
     <row r="320">
       <c r="A320" s="3"/>
+      <c r="G320" s="3"/>
     </row>
     <row r="321">
       <c r="A321" s="3"/>
+      <c r="G321" s="3"/>
     </row>
     <row r="322">
       <c r="A322" s="3"/>
+      <c r="G322" s="3"/>
     </row>
     <row r="323">
       <c r="A323" s="3"/>
+      <c r="G323" s="3"/>
     </row>
     <row r="324">
       <c r="A324" s="3"/>
+      <c r="G324" s="3"/>
     </row>
     <row r="325">
       <c r="A325" s="3"/>
+      <c r="G325" s="3"/>
     </row>
     <row r="326">
       <c r="A326" s="3"/>
+      <c r="G326" s="3"/>
     </row>
     <row r="327">
       <c r="A327" s="3"/>
+      <c r="G327" s="3"/>
     </row>
     <row r="328">
       <c r="A328" s="3"/>
+      <c r="G328" s="3"/>
     </row>
     <row r="329">
       <c r="A329" s="3"/>
+      <c r="G329" s="3"/>
     </row>
     <row r="330">
       <c r="A330" s="3"/>
+      <c r="G330" s="3"/>
     </row>
     <row r="331">
       <c r="A331" s="3"/>
+      <c r="G331" s="3"/>
     </row>
     <row r="332">
       <c r="A332" s="3"/>
+      <c r="G332" s="3"/>
     </row>
     <row r="333">
       <c r="A333" s="3"/>
+      <c r="G333" s="3"/>
     </row>
     <row r="334">
       <c r="A334" s="3"/>
+      <c r="G334" s="3"/>
     </row>
     <row r="335">
       <c r="A335" s="3"/>
+      <c r="G335" s="3"/>
     </row>
     <row r="336">
       <c r="A336" s="3"/>
+      <c r="G336" s="3"/>
     </row>
     <row r="337">
       <c r="A337" s="3"/>
+      <c r="G337" s="3"/>
     </row>
     <row r="338">
       <c r="A338" s="3"/>
+      <c r="G338" s="3"/>
     </row>
     <row r="339">
       <c r="A339" s="3"/>
+      <c r="G339" s="3"/>
     </row>
     <row r="340">
       <c r="A340" s="3"/>
+      <c r="G340" s="3"/>
     </row>
     <row r="341">
       <c r="A341" s="3"/>
+      <c r="G341" s="3"/>
     </row>
     <row r="342">
       <c r="A342" s="3"/>
+      <c r="G342" s="3"/>
     </row>
     <row r="343">
       <c r="A343" s="3"/>
+      <c r="G343" s="3"/>
     </row>
     <row r="344">
       <c r="A344" s="3"/>
+      <c r="G344" s="3"/>
     </row>
     <row r="345">
       <c r="A345" s="3"/>
+      <c r="G345" s="3"/>
     </row>
     <row r="346">
       <c r="A346" s="3"/>
+      <c r="G346" s="3"/>
     </row>
     <row r="347">
       <c r="A347" s="3"/>
+      <c r="G347" s="3"/>
     </row>
     <row r="348">
       <c r="A348" s="3"/>
+      <c r="G348" s="3"/>
     </row>
     <row r="349">
       <c r="A349" s="3"/>
+      <c r="G349" s="3"/>
     </row>
     <row r="350">
       <c r="A350" s="3"/>
+      <c r="G350" s="3"/>
     </row>
     <row r="351">
       <c r="A351" s="3"/>
+      <c r="G351" s="3"/>
     </row>
     <row r="352">
       <c r="A352" s="3"/>
+      <c r="G352" s="3"/>
     </row>
     <row r="353">
       <c r="A353" s="3"/>
+      <c r="G353" s="3"/>
     </row>
     <row r="354">
       <c r="A354" s="3"/>
+      <c r="G354" s="3"/>
     </row>
     <row r="355">
       <c r="A355" s="3"/>
+      <c r="G355" s="3"/>
     </row>
     <row r="356">
       <c r="A356" s="3"/>
+      <c r="G356" s="3"/>
     </row>
     <row r="357">
       <c r="A357" s="3"/>
+      <c r="G357" s="3"/>
     </row>
     <row r="358">
       <c r="A358" s="3"/>
+      <c r="G358" s="3"/>
     </row>
     <row r="359">
       <c r="A359" s="3"/>
+      <c r="G359" s="3"/>
     </row>
     <row r="360">
       <c r="A360" s="3"/>
+      <c r="G360" s="3"/>
     </row>
     <row r="361">
       <c r="A361" s="3"/>
+      <c r="G361" s="3"/>
     </row>
     <row r="362">
       <c r="A362" s="3"/>
+      <c r="G362" s="3"/>
     </row>
     <row r="363">
       <c r="A363" s="3"/>
+      <c r="G363" s="3"/>
     </row>
     <row r="364">
       <c r="A364" s="3"/>
+      <c r="G364" s="3"/>
     </row>
     <row r="365">
       <c r="A365" s="3"/>
+      <c r="G365" s="3"/>
     </row>
     <row r="366">
       <c r="A366" s="3"/>
+      <c r="G366" s="3"/>
     </row>
     <row r="367">
       <c r="A367" s="3"/>
+      <c r="G367" s="3"/>
     </row>
     <row r="368">
       <c r="A368" s="3"/>
+      <c r="G368" s="3"/>
     </row>
     <row r="369">
       <c r="A369" s="3"/>
+      <c r="G369" s="3"/>
     </row>
     <row r="370">
       <c r="A370" s="3"/>
+      <c r="G370" s="3"/>
     </row>
     <row r="371">
       <c r="A371" s="3"/>
+      <c r="G371" s="3"/>
     </row>
     <row r="372">
       <c r="A372" s="3"/>
+      <c r="G372" s="3"/>
     </row>
     <row r="373">
       <c r="A373" s="3"/>
+      <c r="G373" s="3"/>
     </row>
     <row r="374">
       <c r="A374" s="3"/>
+      <c r="G374" s="3"/>
     </row>
     <row r="375">
       <c r="A375" s="3"/>
+      <c r="G375" s="3"/>
     </row>
     <row r="376">
       <c r="A376" s="3"/>
+      <c r="G376" s="3"/>
     </row>
     <row r="377">
       <c r="A377" s="3"/>
+      <c r="G377" s="3"/>
     </row>
     <row r="378">
       <c r="A378" s="3"/>
+      <c r="G378" s="3"/>
     </row>
     <row r="379">
       <c r="A379" s="3"/>
+      <c r="G379" s="3"/>
     </row>
     <row r="380">
       <c r="A380" s="3"/>
+      <c r="G380" s="3"/>
     </row>
     <row r="381">
       <c r="A381" s="3"/>
+      <c r="G381" s="3"/>
     </row>
     <row r="382">
       <c r="A382" s="3"/>
+      <c r="G382" s="3"/>
     </row>
     <row r="383">
       <c r="A383" s="3"/>
+      <c r="G383" s="3"/>
     </row>
     <row r="384">
       <c r="A384" s="3"/>
+      <c r="G384" s="3"/>
     </row>
     <row r="385">
       <c r="A385" s="3"/>
+      <c r="G385" s="3"/>
     </row>
     <row r="386">
       <c r="A386" s="3"/>
+      <c r="G386" s="3"/>
     </row>
     <row r="387">
       <c r="A387" s="3"/>
+      <c r="G387" s="3"/>
     </row>
     <row r="388">
       <c r="A388" s="3"/>
+      <c r="G388" s="3"/>
     </row>
     <row r="389">
       <c r="A389" s="3"/>
+      <c r="G389" s="3"/>
     </row>
     <row r="390">
       <c r="A390" s="3"/>
+      <c r="G390" s="3"/>
     </row>
     <row r="391">
       <c r="A391" s="3"/>
+      <c r="G391" s="3"/>
     </row>
     <row r="392">
       <c r="A392" s="3"/>
+      <c r="G392" s="3"/>
     </row>
     <row r="393">
       <c r="A393" s="3"/>
+      <c r="G393" s="3"/>
     </row>
     <row r="394">
       <c r="A394" s="3"/>
+      <c r="G394" s="3"/>
     </row>
     <row r="395">
       <c r="A395" s="3"/>
+      <c r="G395" s="3"/>
     </row>
     <row r="396">
       <c r="A396" s="3"/>
+      <c r="G396" s="3"/>
     </row>
     <row r="397">
       <c r="A397" s="3"/>
+      <c r="G397" s="3"/>
     </row>
     <row r="398">
       <c r="A398" s="3"/>
+      <c r="G398" s="3"/>
     </row>
     <row r="399">
       <c r="A399" s="3"/>
+      <c r="G399" s="3"/>
     </row>
     <row r="400">
       <c r="A400" s="3"/>
+      <c r="G400" s="3"/>
     </row>
     <row r="401">
       <c r="A401" s="3"/>
+      <c r="G401" s="3"/>
     </row>
     <row r="402">
       <c r="A402" s="3"/>
+      <c r="G402" s="3"/>
     </row>
     <row r="403">
       <c r="A403" s="3"/>
+      <c r="G403" s="3"/>
     </row>
     <row r="404">
       <c r="A404" s="3"/>
+      <c r="G404" s="3"/>
     </row>
     <row r="405">
       <c r="A405" s="3"/>
+      <c r="G405" s="3"/>
     </row>
     <row r="406">
       <c r="A406" s="3"/>
+      <c r="G406" s="3"/>
     </row>
     <row r="407">
       <c r="A407" s="3"/>
+      <c r="G407" s="3"/>
     </row>
     <row r="408">
       <c r="A408" s="3"/>
+      <c r="G408" s="3"/>
     </row>
     <row r="409">
       <c r="A409" s="3"/>
+      <c r="G409" s="3"/>
     </row>
     <row r="410">
       <c r="A410" s="3"/>
+      <c r="G410" s="3"/>
     </row>
     <row r="411">
       <c r="A411" s="3"/>
+      <c r="G411" s="3"/>
     </row>
     <row r="412">
       <c r="A412" s="3"/>
+      <c r="G412" s="3"/>
     </row>
     <row r="413">
       <c r="A413" s="3"/>
+      <c r="G413" s="3"/>
     </row>
     <row r="414">
       <c r="A414" s="3"/>
+      <c r="G414" s="3"/>
     </row>
     <row r="415">
       <c r="A415" s="3"/>
+      <c r="G415" s="3"/>
     </row>
     <row r="416">
       <c r="A416" s="3"/>
+      <c r="G416" s="3"/>
     </row>
     <row r="417">
       <c r="A417" s="3"/>
+      <c r="G417" s="3"/>
     </row>
     <row r="418">
       <c r="A418" s="3"/>
+      <c r="G418" s="3"/>
     </row>
     <row r="419">
       <c r="A419" s="3"/>
+      <c r="G419" s="3"/>
     </row>
     <row r="420">
       <c r="A420" s="3"/>
+      <c r="G420" s="3"/>
     </row>
     <row r="421">
       <c r="A421" s="3"/>
+      <c r="G421" s="3"/>
     </row>
     <row r="422">
       <c r="A422" s="3"/>
+      <c r="G422" s="3"/>
     </row>
     <row r="423">
       <c r="A423" s="3"/>
+      <c r="G423" s="3"/>
     </row>
     <row r="424">
       <c r="A424" s="3"/>
+      <c r="G424" s="3"/>
     </row>
     <row r="425">
       <c r="A425" s="3"/>
+      <c r="G425" s="3"/>
     </row>
     <row r="426">
       <c r="A426" s="3"/>
+      <c r="G426" s="3"/>
     </row>
     <row r="427">
       <c r="A427" s="3"/>
+      <c r="G427" s="3"/>
     </row>
     <row r="428">
       <c r="A428" s="3"/>
+      <c r="G428" s="3"/>
     </row>
     <row r="429">
       <c r="A429" s="3"/>
+      <c r="G429" s="3"/>
     </row>
     <row r="430">
       <c r="A430" s="3"/>
+      <c r="G430" s="3"/>
     </row>
     <row r="431">
       <c r="A431" s="3"/>
+      <c r="G431" s="3"/>
     </row>
     <row r="432">
       <c r="A432" s="3"/>
+      <c r="G432" s="3"/>
     </row>
     <row r="433">
       <c r="A433" s="3"/>
+      <c r="G433" s="3"/>
     </row>
     <row r="434">
       <c r="A434" s="3"/>
+      <c r="G434" s="3"/>
     </row>
     <row r="435">
       <c r="A435" s="3"/>
+      <c r="G435" s="3"/>
     </row>
     <row r="436">
       <c r="A436" s="3"/>
+      <c r="G436" s="3"/>
     </row>
     <row r="437">
       <c r="A437" s="3"/>
+      <c r="G437" s="3"/>
     </row>
     <row r="438">
       <c r="A438" s="3"/>
+      <c r="G438" s="3"/>
     </row>
     <row r="439">
       <c r="A439" s="3"/>
+      <c r="G439" s="3"/>
     </row>
     <row r="440">
       <c r="A440" s="3"/>
+      <c r="G440" s="3"/>
     </row>
     <row r="441">
       <c r="A441" s="3"/>
+      <c r="G441" s="3"/>
     </row>
     <row r="442">
       <c r="A442" s="3"/>
+      <c r="G442" s="3"/>
     </row>
     <row r="443">
       <c r="A443" s="3"/>
+      <c r="G443" s="3"/>
     </row>
     <row r="444">
       <c r="A444" s="3"/>
+      <c r="G444" s="3"/>
     </row>
     <row r="445">
       <c r="A445" s="3"/>
+      <c r="G445" s="3"/>
     </row>
     <row r="446">
       <c r="A446" s="3"/>
+      <c r="G446" s="3"/>
     </row>
     <row r="447">
       <c r="A447" s="3"/>
+      <c r="G447" s="3"/>
     </row>
     <row r="448">
       <c r="A448" s="3"/>
+      <c r="G448" s="3"/>
     </row>
     <row r="449">
       <c r="A449" s="3"/>
+      <c r="G449" s="3"/>
     </row>
     <row r="450">
       <c r="A450" s="3"/>
+      <c r="G450" s="3"/>
     </row>
     <row r="451">
       <c r="A451" s="3"/>
+      <c r="G451" s="3"/>
     </row>
     <row r="452">
       <c r="A452" s="3"/>
+      <c r="G452" s="3"/>
     </row>
     <row r="453">
       <c r="A453" s="3"/>
+      <c r="G453" s="3"/>
     </row>
     <row r="454">
       <c r="A454" s="3"/>
+      <c r="G454" s="3"/>
     </row>
     <row r="455">
       <c r="A455" s="3"/>
+      <c r="G455" s="3"/>
     </row>
     <row r="456">
       <c r="A456" s="3"/>
+      <c r="G456" s="3"/>
     </row>
     <row r="457">
       <c r="A457" s="3"/>
+      <c r="G457" s="3"/>
     </row>
     <row r="458">
       <c r="A458" s="3"/>
+      <c r="G458" s="3"/>
     </row>
     <row r="459">
       <c r="A459" s="3"/>
+      <c r="G459" s="3"/>
     </row>
     <row r="460">
       <c r="A460" s="3"/>
+      <c r="G460" s="3"/>
     </row>
     <row r="461">
       <c r="A461" s="3"/>
+      <c r="G461" s="3"/>
     </row>
     <row r="462">
       <c r="A462" s="3"/>
+      <c r="G462" s="3"/>
     </row>
     <row r="463">
       <c r="A463" s="3"/>
+      <c r="G463" s="3"/>
     </row>
     <row r="464">
       <c r="A464" s="3"/>
+      <c r="G464" s="3"/>
     </row>
     <row r="465">
       <c r="A465" s="3"/>
+      <c r="G465" s="3"/>
     </row>
     <row r="466">
       <c r="A466" s="3"/>
+      <c r="G466" s="3"/>
     </row>
     <row r="467">
       <c r="A467" s="3"/>
+      <c r="G467" s="3"/>
     </row>
     <row r="468">
       <c r="A468" s="3"/>
+      <c r="G468" s="3"/>
     </row>
     <row r="469">
       <c r="A469" s="3"/>
+      <c r="G469" s="3"/>
     </row>
     <row r="470">
       <c r="A470" s="3"/>
+      <c r="G470" s="3"/>
     </row>
     <row r="471">
       <c r="A471" s="3"/>
+      <c r="G471" s="3"/>
     </row>
     <row r="472">
       <c r="A472" s="3"/>
+      <c r="G472" s="3"/>
     </row>
     <row r="473">
       <c r="A473" s="3"/>
+      <c r="G473" s="3"/>
     </row>
     <row r="474">
       <c r="A474" s="3"/>
+      <c r="G474" s="3"/>
     </row>
     <row r="475">
       <c r="A475" s="3"/>
+      <c r="G475" s="3"/>
     </row>
     <row r="476">
       <c r="A476" s="3"/>
+      <c r="G476" s="3"/>
     </row>
     <row r="477">
       <c r="A477" s="3"/>
+      <c r="G477" s="3"/>
     </row>
     <row r="478">
       <c r="A478" s="3"/>
+      <c r="G478" s="3"/>
     </row>
     <row r="479">
       <c r="A479" s="3"/>
+      <c r="G479" s="3"/>
     </row>
     <row r="480">
       <c r="A480" s="3"/>
+      <c r="G480" s="3"/>
     </row>
     <row r="481">
       <c r="A481" s="3"/>
+      <c r="G481" s="3"/>
     </row>
     <row r="482">
       <c r="A482" s="3"/>
+      <c r="G482" s="3"/>
     </row>
     <row r="483">
       <c r="A483" s="3"/>
+      <c r="G483" s="3"/>
     </row>
     <row r="484">
       <c r="A484" s="3"/>
+      <c r="G484" s="3"/>
     </row>
     <row r="485">
       <c r="A485" s="3"/>
+      <c r="G485" s="3"/>
     </row>
     <row r="486">
       <c r="A486" s="3"/>
+      <c r="G486" s="3"/>
     </row>
     <row r="487">
       <c r="A487" s="3"/>
+      <c r="G487" s="3"/>
     </row>
     <row r="488">
       <c r="A488" s="3"/>
+      <c r="G488" s="3"/>
     </row>
     <row r="489">
       <c r="A489" s="3"/>
+      <c r="G489" s="3"/>
     </row>
     <row r="490">
       <c r="A490" s="3"/>
+      <c r="G490" s="3"/>
     </row>
     <row r="491">
       <c r="A491" s="3"/>
+      <c r="G491" s="3"/>
     </row>
     <row r="492">
       <c r="A492" s="3"/>
+      <c r="G492" s="3"/>
     </row>
     <row r="493">
       <c r="A493" s="3"/>
+      <c r="G493" s="3"/>
     </row>
     <row r="494">
       <c r="A494" s="3"/>
+      <c r="G494" s="3"/>
     </row>
     <row r="495">
       <c r="A495" s="3"/>
+      <c r="G495" s="3"/>
     </row>
     <row r="496">
       <c r="A496" s="3"/>
+      <c r="G496" s="3"/>
     </row>
     <row r="497">
       <c r="A497" s="3"/>
+      <c r="G497" s="3"/>
     </row>
     <row r="498">
       <c r="A498" s="3"/>
+      <c r="G498" s="3"/>
     </row>
     <row r="499">
       <c r="A499" s="3"/>
+      <c r="G499" s="3"/>
     </row>
     <row r="500">
       <c r="A500" s="3"/>
+      <c r="G500" s="3"/>
     </row>
     <row r="501">
       <c r="A501" s="3"/>
+      <c r="G501" s="3"/>
     </row>
     <row r="502">
       <c r="A502" s="3"/>
+      <c r="G502" s="3"/>
     </row>
     <row r="503">
       <c r="A503" s="3"/>
+      <c r="G503" s="3"/>
     </row>
     <row r="504">
       <c r="A504" s="3"/>
+      <c r="G504" s="3"/>
     </row>
     <row r="505">
       <c r="A505" s="3"/>
+      <c r="G505" s="3"/>
     </row>
     <row r="506">
       <c r="A506" s="3"/>
+      <c r="G506" s="3"/>
     </row>
     <row r="507">
       <c r="A507" s="3"/>
+      <c r="G507" s="3"/>
     </row>
     <row r="508">
       <c r="A508" s="3"/>
+      <c r="G508" s="3"/>
     </row>
     <row r="509">
       <c r="A509" s="3"/>
+      <c r="G509" s="3"/>
     </row>
     <row r="510">
       <c r="A510" s="3"/>
+      <c r="G510" s="3"/>
     </row>
     <row r="511">
       <c r="A511" s="3"/>
+      <c r="G511" s="3"/>
     </row>
     <row r="512">
       <c r="A512" s="3"/>
+      <c r="G512" s="3"/>
     </row>
     <row r="513">
       <c r="A513" s="3"/>
+      <c r="G513" s="3"/>
     </row>
     <row r="514">
       <c r="A514" s="3"/>
+      <c r="G514" s="3"/>
     </row>
     <row r="515">
       <c r="A515" s="3"/>
+      <c r="G515" s="3"/>
     </row>
     <row r="516">
       <c r="A516" s="3"/>
+      <c r="G516" s="3"/>
     </row>
     <row r="517">
       <c r="A517" s="3"/>
+      <c r="G517" s="3"/>
     </row>
     <row r="518">
       <c r="A518" s="3"/>
+      <c r="G518" s="3"/>
     </row>
     <row r="519">
       <c r="A519" s="3"/>
+      <c r="G519" s="3"/>
     </row>
     <row r="520">
       <c r="A520" s="3"/>
+      <c r="G520" s="3"/>
     </row>
     <row r="521">
       <c r="A521" s="3"/>
+      <c r="G521" s="3"/>
     </row>
     <row r="522">
       <c r="A522" s="3"/>
+      <c r="G522" s="3"/>
     </row>
     <row r="523">
       <c r="A523" s="3"/>
+      <c r="G523" s="3"/>
     </row>
     <row r="524">
       <c r="A524" s="3"/>
+      <c r="G524" s="3"/>
     </row>
     <row r="525">
       <c r="A525" s="3"/>
+      <c r="G525" s="3"/>
     </row>
     <row r="526">
       <c r="A526" s="3"/>
+      <c r="G526" s="3"/>
     </row>
     <row r="527">
       <c r="A527" s="3"/>
+      <c r="G527" s="3"/>
     </row>
     <row r="528">
       <c r="A528" s="3"/>
+      <c r="G528" s="3"/>
     </row>
     <row r="529">
       <c r="A529" s="3"/>
+      <c r="G529" s="3"/>
     </row>
     <row r="530">
       <c r="A530" s="3"/>
+      <c r="G530" s="3"/>
     </row>
     <row r="531">
       <c r="A531" s="3"/>
+      <c r="G531" s="3"/>
     </row>
     <row r="532">
       <c r="A532" s="3"/>
+      <c r="G532" s="3"/>
     </row>
     <row r="533">
       <c r="A533" s="3"/>
+      <c r="G533" s="3"/>
     </row>
     <row r="534">
       <c r="A534" s="3"/>
+      <c r="G534" s="3"/>
     </row>
     <row r="535">
       <c r="A535" s="3"/>
+      <c r="G535" s="3"/>
     </row>
     <row r="536">
       <c r="A536" s="3"/>
+      <c r="G536" s="3"/>
     </row>
     <row r="537">
       <c r="A537" s="3"/>
+      <c r="G537" s="3"/>
     </row>
     <row r="538">
       <c r="A538" s="3"/>
+      <c r="G538" s="3"/>
     </row>
     <row r="539">
       <c r="A539" s="3"/>
+      <c r="G539" s="3"/>
     </row>
     <row r="540">
       <c r="A540" s="3"/>
+      <c r="G540" s="3"/>
     </row>
     <row r="541">
       <c r="A541" s="3"/>
+      <c r="G541" s="3"/>
     </row>
     <row r="542">
       <c r="A542" s="3"/>
+      <c r="G542" s="3"/>
     </row>
     <row r="543">
       <c r="A543" s="3"/>
+      <c r="G543" s="3"/>
     </row>
     <row r="544">
       <c r="A544" s="3"/>
+      <c r="G544" s="3"/>
     </row>
     <row r="545">
       <c r="A545" s="3"/>
+      <c r="G545" s="3"/>
     </row>
     <row r="546">
       <c r="A546" s="3"/>
+      <c r="G546" s="3"/>
     </row>
     <row r="547">
       <c r="A547" s="3"/>
+      <c r="G547" s="3"/>
     </row>
     <row r="548">
       <c r="A548" s="3"/>
+      <c r="G548" s="3"/>
     </row>
     <row r="549">
       <c r="A549" s="3"/>
+      <c r="G549" s="3"/>
     </row>
     <row r="550">
       <c r="A550" s="3"/>
+      <c r="G550" s="3"/>
     </row>
     <row r="551">
       <c r="A551" s="3"/>
+      <c r="G551" s="3"/>
     </row>
     <row r="552">
       <c r="A552" s="3"/>
+      <c r="G552" s="3"/>
     </row>
     <row r="553">
       <c r="A553" s="3"/>
+      <c r="G553" s="3"/>
     </row>
     <row r="554">
       <c r="A554" s="3"/>
+      <c r="G554" s="3"/>
     </row>
     <row r="555">
       <c r="A555" s="3"/>
+      <c r="G555" s="3"/>
     </row>
     <row r="556">
       <c r="A556" s="3"/>
+      <c r="G556" s="3"/>
     </row>
     <row r="557">
       <c r="A557" s="3"/>
+      <c r="G557" s="3"/>
     </row>
     <row r="558">
       <c r="A558" s="3"/>
+      <c r="G558" s="3"/>
     </row>
     <row r="559">
       <c r="A559" s="3"/>
+      <c r="G559" s="3"/>
     </row>
     <row r="560">
       <c r="A560" s="3"/>
+      <c r="G560" s="3"/>
     </row>
     <row r="561">
       <c r="A561" s="3"/>
+      <c r="G561" s="3"/>
     </row>
     <row r="562">
       <c r="A562" s="3"/>
+      <c r="G562" s="3"/>
     </row>
     <row r="563">
       <c r="A563" s="3"/>
+      <c r="G563" s="3"/>
     </row>
     <row r="564">
       <c r="A564" s="3"/>
+      <c r="G564" s="3"/>
     </row>
     <row r="565">
       <c r="A565" s="3"/>
+      <c r="G565" s="3"/>
     </row>
     <row r="566">
       <c r="A566" s="3"/>
+      <c r="G566" s="3"/>
     </row>
     <row r="567">
       <c r="A567" s="3"/>
+      <c r="G567" s="3"/>
     </row>
     <row r="568">
       <c r="A568" s="3"/>
+      <c r="G568" s="3"/>
     </row>
     <row r="569">
       <c r="A569" s="3"/>
+      <c r="G569" s="3"/>
     </row>
     <row r="570">
       <c r="A570" s="3"/>
+      <c r="G570" s="3"/>
     </row>
     <row r="571">
       <c r="A571" s="3"/>
+      <c r="G571" s="3"/>
     </row>
     <row r="572">
       <c r="A572" s="3"/>
+      <c r="G572" s="3"/>
     </row>
     <row r="573">
       <c r="A573" s="3"/>
+      <c r="G573" s="3"/>
     </row>
     <row r="574">
       <c r="A574" s="3"/>
+      <c r="G574" s="3"/>
     </row>
     <row r="575">
       <c r="A575" s="3"/>
+      <c r="G575" s="3"/>
     </row>
     <row r="576">
       <c r="A576" s="3"/>
+      <c r="G576" s="3"/>
     </row>
     <row r="577">
       <c r="A577" s="3"/>
+      <c r="G577" s="3"/>
     </row>
     <row r="578">
       <c r="A578" s="3"/>
+      <c r="G578" s="3"/>
     </row>
     <row r="579">
       <c r="A579" s="3"/>
+      <c r="G579" s="3"/>
     </row>
     <row r="580">
       <c r="A580" s="3"/>
+      <c r="G580" s="3"/>
     </row>
     <row r="581">
       <c r="A581" s="3"/>
+      <c r="G581" s="3"/>
     </row>
     <row r="582">
       <c r="A582" s="3"/>
+      <c r="G582" s="3"/>
     </row>
     <row r="583">
       <c r="A583" s="3"/>
+      <c r="G583" s="3"/>
     </row>
     <row r="584">
       <c r="A584" s="3"/>
+      <c r="G584" s="3"/>
     </row>
     <row r="585">
       <c r="A585" s="3"/>
+      <c r="G585" s="3"/>
     </row>
     <row r="586">
       <c r="A586" s="3"/>
+      <c r="G586" s="3"/>
     </row>
     <row r="587">
       <c r="A587" s="3"/>
+      <c r="G587" s="3"/>
     </row>
     <row r="588">
       <c r="A588" s="3"/>
+      <c r="G588" s="3"/>
     </row>
     <row r="589">
       <c r="A589" s="3"/>
+      <c r="G589" s="3"/>
     </row>
     <row r="590">
       <c r="A590" s="3"/>
+      <c r="G590" s="3"/>
     </row>
     <row r="591">
       <c r="A591" s="3"/>
+      <c r="G591" s="3"/>
     </row>
     <row r="592">
       <c r="A592" s="3"/>
+      <c r="G592" s="3"/>
     </row>
     <row r="593">
       <c r="A593" s="3"/>
+      <c r="G593" s="3"/>
     </row>
     <row r="594">
       <c r="A594" s="3"/>
+      <c r="G594" s="3"/>
     </row>
     <row r="595">
       <c r="A595" s="3"/>
+      <c r="G595" s="3"/>
     </row>
     <row r="596">
       <c r="A596" s="3"/>
+      <c r="G596" s="3"/>
     </row>
     <row r="597">
       <c r="A597" s="3"/>
+      <c r="G597" s="3"/>
     </row>
     <row r="598">
       <c r="A598" s="3"/>
+      <c r="G598" s="3"/>
     </row>
     <row r="599">
       <c r="A599" s="3"/>
+      <c r="G599" s="3"/>
     </row>
     <row r="600">
       <c r="A600" s="3"/>
+      <c r="G600" s="3"/>
     </row>
     <row r="601">
       <c r="A601" s="3"/>
+      <c r="G601" s="3"/>
     </row>
     <row r="602">
       <c r="A602" s="3"/>
+      <c r="G602" s="3"/>
     </row>
     <row r="603">
       <c r="A603" s="3"/>
+      <c r="G603" s="3"/>
     </row>
     <row r="604">
       <c r="A604" s="3"/>
+      <c r="G604" s="3"/>
     </row>
     <row r="605">
       <c r="A605" s="3"/>
+      <c r="G605" s="3"/>
     </row>
     <row r="606">
       <c r="A606" s="3"/>
+      <c r="G606" s="3"/>
     </row>
     <row r="607">
       <c r="A607" s="3"/>
+      <c r="G607" s="3"/>
     </row>
     <row r="608">
       <c r="A608" s="3"/>
+      <c r="G608" s="3"/>
     </row>
     <row r="609">
       <c r="A609" s="3"/>
+      <c r="G609" s="3"/>
     </row>
     <row r="610">
       <c r="A610" s="3"/>
+      <c r="G610" s="3"/>
     </row>
     <row r="611">
       <c r="A611" s="3"/>
+      <c r="G611" s="3"/>
     </row>
     <row r="612">
       <c r="A612" s="3"/>
+      <c r="G612" s="3"/>
     </row>
     <row r="613">
       <c r="A613" s="3"/>
+      <c r="G613" s="3"/>
     </row>
     <row r="614">
       <c r="A614" s="3"/>
+      <c r="G614" s="3"/>
     </row>
     <row r="615">
       <c r="A615" s="3"/>
+      <c r="G615" s="3"/>
     </row>
     <row r="616">
       <c r="A616" s="3"/>
+      <c r="G616" s="3"/>
     </row>
     <row r="617">
       <c r="A617" s="3"/>
+      <c r="G617" s="3"/>
     </row>
     <row r="618">
       <c r="A618" s="3"/>
+      <c r="G618" s="3"/>
     </row>
     <row r="619">
       <c r="A619" s="3"/>
+      <c r="G619" s="3"/>
     </row>
     <row r="620">
       <c r="A620" s="3"/>
+      <c r="G620" s="3"/>
     </row>
     <row r="621">
       <c r="A621" s="3"/>
+      <c r="G621" s="3"/>
     </row>
     <row r="622">
       <c r="A622" s="3"/>
+      <c r="G622" s="3"/>
     </row>
     <row r="623">
       <c r="A623" s="3"/>
+      <c r="G623" s="3"/>
     </row>
     <row r="624">
       <c r="A624" s="3"/>
+      <c r="G624" s="3"/>
     </row>
     <row r="625">
       <c r="A625" s="3"/>
+      <c r="G625" s="3"/>
     </row>
     <row r="626">
       <c r="A626" s="3"/>
+      <c r="G626" s="3"/>
     </row>
     <row r="627">
       <c r="A627" s="3"/>
+      <c r="G627" s="3"/>
     </row>
     <row r="628">
       <c r="A628" s="3"/>
+      <c r="G628" s="3"/>
     </row>
     <row r="629">
       <c r="A629" s="3"/>
+      <c r="G629" s="3"/>
     </row>
     <row r="630">
       <c r="A630" s="3"/>
+      <c r="G630" s="3"/>
     </row>
     <row r="631">
       <c r="A631" s="3"/>
+      <c r="G631" s="3"/>
     </row>
     <row r="632">
       <c r="A632" s="3"/>
+      <c r="G632" s="3"/>
     </row>
     <row r="633">
       <c r="A633" s="3"/>
+      <c r="G633" s="3"/>
     </row>
     <row r="634">
       <c r="A634" s="3"/>
+      <c r="G634" s="3"/>
     </row>
     <row r="635">
       <c r="A635" s="3"/>
+      <c r="G635" s="3"/>
     </row>
     <row r="636">
       <c r="A636" s="3"/>
+      <c r="G636" s="3"/>
     </row>
     <row r="637">
       <c r="A637" s="3"/>
+      <c r="G637" s="3"/>
     </row>
     <row r="638">
       <c r="A638" s="3"/>
+      <c r="G638" s="3"/>
     </row>
     <row r="639">
       <c r="A639" s="3"/>
+      <c r="G639" s="3"/>
     </row>
     <row r="640">
       <c r="A640" s="3"/>
+      <c r="G640" s="3"/>
     </row>
     <row r="641">
       <c r="A641" s="3"/>
+      <c r="G641" s="3"/>
     </row>
     <row r="642">
       <c r="A642" s="3"/>
+      <c r="G642" s="3"/>
     </row>
     <row r="643">
       <c r="A643" s="3"/>
+      <c r="G643" s="3"/>
     </row>
     <row r="644">
       <c r="A644" s="3"/>
+      <c r="G644" s="3"/>
     </row>
     <row r="645">
       <c r="A645" s="3"/>
+      <c r="G645" s="3"/>
     </row>
     <row r="646">
       <c r="A646" s="3"/>
+      <c r="G646" s="3"/>
     </row>
     <row r="647">
       <c r="A647" s="3"/>
+      <c r="G647" s="3"/>
     </row>
     <row r="648">
       <c r="A648" s="3"/>
+      <c r="G648" s="3"/>
     </row>
     <row r="649">
       <c r="A649" s="3"/>
+      <c r="G649" s="3"/>
     </row>
     <row r="650">
       <c r="A650" s="3"/>
+      <c r="G650" s="3"/>
     </row>
     <row r="651">
       <c r="A651" s="3"/>
+      <c r="G651" s="3"/>
     </row>
     <row r="652">
       <c r="A652" s="3"/>
+      <c r="G652" s="3"/>
     </row>
     <row r="653">
       <c r="A653" s="3"/>
+      <c r="G653" s="3"/>
     </row>
     <row r="654">
       <c r="A654" s="3"/>
+      <c r="G654" s="3"/>
     </row>
     <row r="655">
       <c r="A655" s="3"/>
+      <c r="G655" s="3"/>
     </row>
     <row r="656">
       <c r="A656" s="3"/>
+      <c r="G656" s="3"/>
     </row>
     <row r="657">
       <c r="A657" s="3"/>
+      <c r="G657" s="3"/>
     </row>
     <row r="658">
       <c r="A658" s="3"/>
+      <c r="G658" s="3"/>
     </row>
     <row r="659">
       <c r="A659" s="3"/>
+      <c r="G659" s="3"/>
     </row>
     <row r="660">
       <c r="A660" s="3"/>
+      <c r="G660" s="3"/>
     </row>
     <row r="661">
       <c r="A661" s="3"/>
+      <c r="G661" s="3"/>
     </row>
     <row r="662">
       <c r="A662" s="3"/>
+      <c r="G662" s="3"/>
     </row>
     <row r="663">
       <c r="A663" s="3"/>
+      <c r="G663" s="3"/>
     </row>
     <row r="664">
       <c r="A664" s="3"/>
+      <c r="G664" s="3"/>
     </row>
     <row r="665">
       <c r="A665" s="3"/>
+      <c r="G665" s="3"/>
     </row>
     <row r="666">
       <c r="A666" s="3"/>
+      <c r="G666" s="3"/>
     </row>
     <row r="667">
       <c r="A667" s="3"/>
+      <c r="G667" s="3"/>
     </row>
     <row r="668">
       <c r="A668" s="3"/>
+      <c r="G668" s="3"/>
     </row>
     <row r="669">
       <c r="A669" s="3"/>
+      <c r="G669" s="3"/>
     </row>
     <row r="670">
       <c r="A670" s="3"/>
+      <c r="G670" s="3"/>
     </row>
     <row r="671">
       <c r="A671" s="3"/>
+      <c r="G671" s="3"/>
     </row>
     <row r="672">
       <c r="A672" s="3"/>
+      <c r="G672" s="3"/>
     </row>
     <row r="673">
       <c r="A673" s="3"/>
+      <c r="G673" s="3"/>
     </row>
     <row r="674">
       <c r="A674" s="3"/>
+      <c r="G674" s="3"/>
     </row>
     <row r="675">
       <c r="A675" s="3"/>
+      <c r="G675" s="3"/>
     </row>
     <row r="676">
       <c r="A676" s="3"/>
+      <c r="G676" s="3"/>
     </row>
     <row r="677">
       <c r="A677" s="3"/>
+      <c r="G677" s="3"/>
     </row>
     <row r="678">
       <c r="A678" s="3"/>
+      <c r="G678" s="3"/>
     </row>
     <row r="679">
       <c r="A679" s="3"/>
+      <c r="G679" s="3"/>
     </row>
     <row r="680">
       <c r="A680" s="3"/>
+      <c r="G680" s="3"/>
     </row>
     <row r="681">
       <c r="A681" s="3"/>
+      <c r="G681" s="3"/>
     </row>
     <row r="682">
       <c r="A682" s="3"/>
+      <c r="G682" s="3"/>
     </row>
     <row r="683">
       <c r="A683" s="3"/>
+      <c r="G683" s="3"/>
     </row>
     <row r="684">
       <c r="A684" s="3"/>
+      <c r="G684" s="3"/>
     </row>
     <row r="685">
       <c r="A685" s="3"/>
+      <c r="G685" s="3"/>
     </row>
     <row r="686">
       <c r="A686" s="3"/>
+      <c r="G686" s="3"/>
     </row>
     <row r="687">
       <c r="A687" s="3"/>
+      <c r="G687" s="3"/>
     </row>
     <row r="688">
       <c r="A688" s="3"/>
+      <c r="G688" s="3"/>
     </row>
     <row r="689">
       <c r="A689" s="3"/>
+      <c r="G689" s="3"/>
     </row>
     <row r="690">
       <c r="A690" s="3"/>
+      <c r="G690" s="3"/>
     </row>
     <row r="691">
       <c r="A691" s="3"/>
+      <c r="G691" s="3"/>
     </row>
     <row r="692">
       <c r="A692" s="3"/>
+      <c r="G692" s="3"/>
     </row>
     <row r="693">
       <c r="A693" s="3"/>
+      <c r="G693" s="3"/>
     </row>
     <row r="694">
       <c r="A694" s="3"/>
+      <c r="G694" s="3"/>
     </row>
     <row r="695">
       <c r="A695" s="3"/>
+      <c r="G695" s="3"/>
     </row>
     <row r="696">
       <c r="A696" s="3"/>
+      <c r="G696" s="3"/>
     </row>
     <row r="697">
       <c r="A697" s="3"/>
+      <c r="G697" s="3"/>
     </row>
     <row r="698">
       <c r="A698" s="3"/>
+      <c r="G698" s="3"/>
     </row>
     <row r="699">
       <c r="A699" s="3"/>
+      <c r="G699" s="3"/>
     </row>
     <row r="700">
       <c r="A700" s="3"/>
+      <c r="G700" s="3"/>
     </row>
     <row r="701">
       <c r="A701" s="3"/>
+      <c r="G701" s="3"/>
     </row>
     <row r="702">
       <c r="A702" s="3"/>
+      <c r="G702" s="3"/>
     </row>
     <row r="703">
       <c r="A703" s="3"/>
+      <c r="G703" s="3"/>
     </row>
     <row r="704">
       <c r="A704" s="3"/>
+      <c r="G704" s="3"/>
     </row>
     <row r="705">
       <c r="A705" s="3"/>
+      <c r="G705" s="3"/>
     </row>
     <row r="706">
       <c r="A706" s="3"/>
+      <c r="G706" s="3"/>
     </row>
     <row r="707">
       <c r="A707" s="3"/>
+      <c r="G707" s="3"/>
     </row>
     <row r="708">
       <c r="A708" s="3"/>
+      <c r="G708" s="3"/>
     </row>
     <row r="709">
       <c r="A709" s="3"/>
+      <c r="G709" s="3"/>
     </row>
     <row r="710">
       <c r="A710" s="3"/>
+      <c r="G710" s="3"/>
     </row>
     <row r="711">
       <c r="A711" s="3"/>
+      <c r="G711" s="3"/>
     </row>
     <row r="712">
       <c r="A712" s="3"/>
+      <c r="G712" s="3"/>
     </row>
     <row r="713">
       <c r="A713" s="3"/>
+      <c r="G713" s="3"/>
     </row>
     <row r="714">
       <c r="A714" s="3"/>
+      <c r="G714" s="3"/>
     </row>
     <row r="715">
       <c r="A715" s="3"/>
+      <c r="G715" s="3"/>
     </row>
     <row r="716">
       <c r="A716" s="3"/>
+      <c r="G716" s="3"/>
     </row>
     <row r="717">
       <c r="A717" s="3"/>
+      <c r="G717" s="3"/>
     </row>
     <row r="718">
       <c r="A718" s="3"/>
+      <c r="G718" s="3"/>
     </row>
     <row r="719">
       <c r="A719" s="3"/>
+      <c r="G719" s="3"/>
     </row>
     <row r="720">
       <c r="A720" s="3"/>
+      <c r="G720" s="3"/>
     </row>
     <row r="721">
       <c r="A721" s="3"/>
+      <c r="G721" s="3"/>
     </row>
     <row r="722">
       <c r="A722" s="3"/>
+      <c r="G722" s="3"/>
     </row>
     <row r="723">
       <c r="A723" s="3"/>
+      <c r="G723" s="3"/>
     </row>
     <row r="724">
       <c r="A724" s="3"/>
+      <c r="G724" s="3"/>
     </row>
     <row r="725">
       <c r="A725" s="3"/>
+      <c r="G725" s="3"/>
     </row>
     <row r="726">
       <c r="A726" s="3"/>
+      <c r="G726" s="3"/>
     </row>
     <row r="727">
       <c r="A727" s="3"/>
+      <c r="G727" s="3"/>
     </row>
     <row r="728">
       <c r="A728" s="3"/>
+      <c r="G728" s="3"/>
     </row>
     <row r="729">
       <c r="A729" s="3"/>
+      <c r="G729" s="3"/>
     </row>
     <row r="730">
       <c r="A730" s="3"/>
+      <c r="G730" s="3"/>
     </row>
     <row r="731">
       <c r="A731" s="3"/>
+      <c r="G731" s="3"/>
     </row>
     <row r="732">
       <c r="A732" s="3"/>
+      <c r="G732" s="3"/>
     </row>
     <row r="733">
       <c r="A733" s="3"/>
+      <c r="G733" s="3"/>
     </row>
     <row r="734">
       <c r="A734" s="3"/>
+      <c r="G734" s="3"/>
     </row>
     <row r="735">
       <c r="A735" s="3"/>
+      <c r="G735" s="3"/>
     </row>
     <row r="736">
       <c r="A736" s="3"/>
+      <c r="G736" s="3"/>
     </row>
     <row r="737">
       <c r="A737" s="3"/>
+      <c r="G737" s="3"/>
     </row>
     <row r="738">
       <c r="A738" s="3"/>
+      <c r="G738" s="3"/>
     </row>
     <row r="739">
       <c r="A739" s="3"/>
+      <c r="G739" s="3"/>
     </row>
     <row r="740">
       <c r="A740" s="3"/>
+      <c r="G740" s="3"/>
     </row>
     <row r="741">
       <c r="A741" s="3"/>
+      <c r="G741" s="3"/>
     </row>
     <row r="742">
       <c r="A742" s="3"/>
+      <c r="G742" s="3"/>
     </row>
     <row r="743">
       <c r="A743" s="3"/>
+      <c r="G743" s="3"/>
     </row>
     <row r="744">
       <c r="A744" s="3"/>
+      <c r="G744" s="3"/>
     </row>
     <row r="745">
       <c r="A745" s="3"/>
+      <c r="G745" s="3"/>
     </row>
     <row r="746">
       <c r="A746" s="3"/>
+      <c r="G746" s="3"/>
     </row>
     <row r="747">
       <c r="A747" s="3"/>
+      <c r="G747" s="3"/>
     </row>
     <row r="748">
       <c r="A748" s="3"/>
+      <c r="G748" s="3"/>
     </row>
     <row r="749">
       <c r="A749" s="3"/>
+      <c r="G749" s="3"/>
     </row>
     <row r="750">
       <c r="A750" s="3"/>
+      <c r="G750" s="3"/>
     </row>
     <row r="751">
       <c r="A751" s="3"/>
+      <c r="G751" s="3"/>
     </row>
     <row r="752">
       <c r="A752" s="3"/>
+      <c r="G752" s="3"/>
     </row>
     <row r="753">
       <c r="A753" s="3"/>
+      <c r="G753" s="3"/>
     </row>
     <row r="754">
       <c r="A754" s="3"/>
+      <c r="G754" s="3"/>
     </row>
     <row r="755">
       <c r="A755" s="3"/>
+      <c r="G755" s="3"/>
     </row>
     <row r="756">
       <c r="A756" s="3"/>
+      <c r="G756" s="3"/>
     </row>
     <row r="757">
       <c r="A757" s="3"/>
+      <c r="G757" s="3"/>
     </row>
     <row r="758">
       <c r="A758" s="3"/>
+      <c r="G758" s="3"/>
     </row>
     <row r="759">
       <c r="A759" s="3"/>
+      <c r="G759" s="3"/>
     </row>
     <row r="760">
       <c r="A760" s="3"/>
+      <c r="G760" s="3"/>
     </row>
     <row r="761">
       <c r="A761" s="3"/>
+      <c r="G761" s="3"/>
     </row>
     <row r="762">
       <c r="A762" s="3"/>
+      <c r="G762" s="3"/>
     </row>
     <row r="763">
       <c r="A763" s="3"/>
+      <c r="G763" s="3"/>
     </row>
     <row r="764">
       <c r="A764" s="3"/>
+      <c r="G764" s="3"/>
     </row>
     <row r="765">
       <c r="A765" s="3"/>
+      <c r="G765" s="3"/>
     </row>
     <row r="766">
       <c r="A766" s="3"/>
+      <c r="G766" s="3"/>
     </row>
     <row r="767">
       <c r="A767" s="3"/>
+      <c r="G767" s="3"/>
     </row>
     <row r="768">
       <c r="A768" s="3"/>
+      <c r="G768" s="3"/>
     </row>
     <row r="769">
       <c r="A769" s="3"/>
+      <c r="G769" s="3"/>
     </row>
     <row r="770">
       <c r="A770" s="3"/>
+      <c r="G770" s="3"/>
     </row>
     <row r="771">
       <c r="A771" s="3"/>
+      <c r="G771" s="3"/>
     </row>
     <row r="772">
       <c r="A772" s="3"/>
+      <c r="G772" s="3"/>
     </row>
     <row r="773">
       <c r="A773" s="3"/>
+      <c r="G773" s="3"/>
     </row>
     <row r="774">
       <c r="A774" s="3"/>
+      <c r="G774" s="3"/>
     </row>
     <row r="775">
       <c r="A775" s="3"/>
+      <c r="G775" s="3"/>
     </row>
     <row r="776">
       <c r="A776" s="3"/>
+      <c r="G776" s="3"/>
     </row>
     <row r="777">
       <c r="A777" s="3"/>
+      <c r="G777" s="3"/>
     </row>
     <row r="778">
       <c r="A778" s="3"/>
+      <c r="G778" s="3"/>
     </row>
     <row r="779">
       <c r="A779" s="3"/>
+      <c r="G779" s="3"/>
     </row>
     <row r="780">
       <c r="A780" s="3"/>
+      <c r="G780" s="3"/>
     </row>
     <row r="781">
       <c r="A781" s="3"/>
+      <c r="G781" s="3"/>
     </row>
     <row r="782">
       <c r="A782" s="3"/>
+      <c r="G782" s="3"/>
     </row>
     <row r="783">
       <c r="A783" s="3"/>
+      <c r="G783" s="3"/>
     </row>
     <row r="784">
       <c r="A784" s="3"/>
+      <c r="G784" s="3"/>
     </row>
     <row r="785">
       <c r="A785" s="3"/>
+      <c r="G785" s="3"/>
     </row>
     <row r="786">
       <c r="A786" s="3"/>
+      <c r="G786" s="3"/>
     </row>
     <row r="787">
       <c r="A787" s="3"/>
+      <c r="G787" s="3"/>
     </row>
     <row r="788">
       <c r="A788" s="3"/>
+      <c r="G788" s="3"/>
     </row>
     <row r="789">
       <c r="A789" s="3"/>
+      <c r="G789" s="3"/>
     </row>
     <row r="790">
       <c r="A790" s="3"/>
+      <c r="G790" s="3"/>
     </row>
     <row r="791">
       <c r="A791" s="3"/>
+      <c r="G791" s="3"/>
     </row>
     <row r="792">
       <c r="A792" s="3"/>
+      <c r="G792" s="3"/>
     </row>
     <row r="793">
       <c r="A793" s="3"/>
+      <c r="G793" s="3"/>
     </row>
     <row r="794">
       <c r="A794" s="3"/>
+      <c r="G794" s="3"/>
     </row>
     <row r="795">
       <c r="A795" s="3"/>
+      <c r="G795" s="3"/>
     </row>
     <row r="796">
       <c r="A796" s="3"/>
+      <c r="G796" s="3"/>
     </row>
     <row r="797">
       <c r="A797" s="3"/>
+      <c r="G797" s="3"/>
     </row>
     <row r="798">
       <c r="A798" s="3"/>
+      <c r="G798" s="3"/>
     </row>
     <row r="799">
       <c r="A799" s="3"/>
+      <c r="G799" s="3"/>
     </row>
     <row r="800">
       <c r="A800" s="3"/>
+      <c r="G800" s="3"/>
     </row>
     <row r="801">
       <c r="A801" s="3"/>
+      <c r="G801" s="3"/>
     </row>
     <row r="802">
       <c r="A802" s="3"/>
+      <c r="G802" s="3"/>
     </row>
     <row r="803">
       <c r="A803" s="3"/>
+      <c r="G803" s="3"/>
     </row>
     <row r="804">
       <c r="A804" s="3"/>
+      <c r="G804" s="3"/>
     </row>
     <row r="805">
       <c r="A805" s="3"/>
+      <c r="G805" s="3"/>
     </row>
     <row r="806">
       <c r="A806" s="3"/>
+      <c r="G806" s="3"/>
     </row>
     <row r="807">
       <c r="A807" s="3"/>
+      <c r="G807" s="3"/>
     </row>
     <row r="808">
       <c r="A808" s="3"/>
+      <c r="G808" s="3"/>
     </row>
     <row r="809">
       <c r="A809" s="3"/>
+      <c r="G809" s="3"/>
     </row>
     <row r="810">
       <c r="A810" s="3"/>
+      <c r="G810" s="3"/>
     </row>
     <row r="811">
       <c r="A811" s="3"/>
+      <c r="G811" s="3"/>
     </row>
     <row r="812">
       <c r="A812" s="3"/>
+      <c r="G812" s="3"/>
     </row>
     <row r="813">
       <c r="A813" s="3"/>
+      <c r="G813" s="3"/>
     </row>
     <row r="814">
       <c r="A814" s="3"/>
+      <c r="G814" s="3"/>
     </row>
     <row r="815">
       <c r="A815" s="3"/>
+      <c r="G815" s="3"/>
     </row>
     <row r="816">
       <c r="A816" s="3"/>
+      <c r="G816" s="3"/>
     </row>
     <row r="817">
       <c r="A817" s="3"/>
+      <c r="G817" s="3"/>
     </row>
     <row r="818">
       <c r="A818" s="3"/>
+      <c r="G818" s="3"/>
     </row>
     <row r="819">
       <c r="A819" s="3"/>
+      <c r="G819" s="3"/>
     </row>
     <row r="820">
       <c r="A820" s="3"/>
+      <c r="G820" s="3"/>
     </row>
     <row r="821">
       <c r="A821" s="3"/>
+      <c r="G821" s="3"/>
     </row>
     <row r="822">
       <c r="A822" s="3"/>
+      <c r="G822" s="3"/>
     </row>
     <row r="823">
       <c r="A823" s="3"/>
+      <c r="G823" s="3"/>
     </row>
     <row r="824">
       <c r="A824" s="3"/>
+      <c r="G824" s="3"/>
     </row>
     <row r="825">
       <c r="A825" s="3"/>
+      <c r="G825" s="3"/>
     </row>
     <row r="826">
       <c r="A826" s="3"/>
+      <c r="G826" s="3"/>
     </row>
     <row r="827">
       <c r="A827" s="3"/>
+      <c r="G827" s="3"/>
     </row>
     <row r="828">
       <c r="A828" s="3"/>
+      <c r="G828" s="3"/>
     </row>
     <row r="829">
       <c r="A829" s="3"/>
+      <c r="G829" s="3"/>
     </row>
     <row r="830">
       <c r="A830" s="3"/>
+      <c r="G830" s="3"/>
     </row>
     <row r="831">
       <c r="A831" s="3"/>
+      <c r="G831" s="3"/>
     </row>
     <row r="832">
       <c r="A832" s="3"/>
+      <c r="G832" s="3"/>
     </row>
     <row r="833">
       <c r="A833" s="3"/>
+      <c r="G833" s="3"/>
     </row>
     <row r="834">
       <c r="A834" s="3"/>
+      <c r="G834" s="3"/>
     </row>
     <row r="835">
       <c r="A835" s="3"/>
+      <c r="G835" s="3"/>
     </row>
     <row r="836">
       <c r="A836" s="3"/>
+      <c r="G836" s="3"/>
     </row>
     <row r="837">
       <c r="A837" s="3"/>
+      <c r="G837" s="3"/>
     </row>
     <row r="838">
       <c r="A838" s="3"/>
+      <c r="G838" s="3"/>
     </row>
     <row r="839">
       <c r="A839" s="3"/>
+      <c r="G839" s="3"/>
     </row>
     <row r="840">
       <c r="A840" s="3"/>
+      <c r="G840" s="3"/>
     </row>
     <row r="841">
       <c r="A841" s="3"/>
+      <c r="G841" s="3"/>
     </row>
     <row r="842">
       <c r="A842" s="3"/>
+      <c r="G842" s="3"/>
     </row>
     <row r="843">
       <c r="A843" s="3"/>
+      <c r="G843" s="3"/>
     </row>
     <row r="844">
       <c r="A844" s="3"/>
+      <c r="G844" s="3"/>
     </row>
     <row r="845">
       <c r="A845" s="3"/>
+      <c r="G845" s="3"/>
     </row>
     <row r="846">
       <c r="A846" s="3"/>
+      <c r="G846" s="3"/>
     </row>
     <row r="847">
       <c r="A847" s="3"/>
+      <c r="G847" s="3"/>
     </row>
     <row r="848">
       <c r="A848" s="3"/>
+      <c r="G848" s="3"/>
     </row>
     <row r="849">
       <c r="A849" s="3"/>
+      <c r="G849" s="3"/>
     </row>
     <row r="850">
       <c r="A850" s="3"/>
+      <c r="G850" s="3"/>
     </row>
     <row r="851">
       <c r="A851" s="3"/>
+      <c r="G851" s="3"/>
     </row>
     <row r="852">
       <c r="A852" s="3"/>
+      <c r="G852" s="3"/>
     </row>
     <row r="853">
       <c r="A853" s="3"/>
+      <c r="G853" s="3"/>
     </row>
     <row r="854">
       <c r="A854" s="3"/>
+      <c r="G854" s="3"/>
     </row>
     <row r="855">
       <c r="A855" s="3"/>
+      <c r="G855" s="3"/>
     </row>
     <row r="856">
       <c r="A856" s="3"/>
+      <c r="G856" s="3"/>
     </row>
     <row r="857">
       <c r="A857" s="3"/>
+      <c r="G857" s="3"/>
     </row>
     <row r="858">
       <c r="A858" s="3"/>
+      <c r="G858" s="3"/>
     </row>
     <row r="859">
       <c r="A859" s="3"/>
+      <c r="G859" s="3"/>
     </row>
     <row r="860">
       <c r="A860" s="3"/>
+      <c r="G860" s="3"/>
     </row>
     <row r="861">
       <c r="A861" s="3"/>
+      <c r="G861" s="3"/>
     </row>
     <row r="862">
       <c r="A862" s="3"/>
+      <c r="G862" s="3"/>
     </row>
     <row r="863">
       <c r="A863" s="3"/>
+      <c r="G863" s="3"/>
     </row>
     <row r="864">
       <c r="A864" s="3"/>
+      <c r="G864" s="3"/>
     </row>
     <row r="865">
       <c r="A865" s="3"/>
+      <c r="G865" s="3"/>
     </row>
     <row r="866">
       <c r="A866" s="3"/>
+      <c r="G866" s="3"/>
     </row>
     <row r="867">
       <c r="A867" s="3"/>
+      <c r="G867" s="3"/>
     </row>
     <row r="868">
       <c r="A868" s="3"/>
+      <c r="G868" s="3"/>
     </row>
     <row r="869">
       <c r="A869" s="3"/>
+      <c r="G869" s="3"/>
     </row>
     <row r="870">
       <c r="A870" s="3"/>
+      <c r="G870" s="3"/>
     </row>
     <row r="871">
       <c r="A871" s="3"/>
+      <c r="G871" s="3"/>
     </row>
     <row r="872">
       <c r="A872" s="3"/>
+      <c r="G872" s="3"/>
     </row>
     <row r="873">
       <c r="A873" s="3"/>
+      <c r="G873" s="3"/>
     </row>
     <row r="874">
       <c r="A874" s="3"/>
+      <c r="G874" s="3"/>
     </row>
     <row r="875">
       <c r="A875" s="3"/>
+      <c r="G875" s="3"/>
     </row>
     <row r="876">
       <c r="A876" s="3"/>
+      <c r="G876" s="3"/>
     </row>
     <row r="877">
       <c r="A877" s="3"/>
+      <c r="G877" s="3"/>
     </row>
     <row r="878">
       <c r="A878" s="3"/>
+      <c r="G878" s="3"/>
     </row>
     <row r="879">
       <c r="A879" s="3"/>
+      <c r="G879" s="3"/>
     </row>
     <row r="880">
       <c r="A880" s="3"/>
+      <c r="G880" s="3"/>
     </row>
     <row r="881">
       <c r="A881" s="3"/>
+      <c r="G881" s="3"/>
     </row>
     <row r="882">
       <c r="A882" s="3"/>
+      <c r="G882" s="3"/>
     </row>
     <row r="883">
       <c r="A883" s="3"/>
+      <c r="G883" s="3"/>
     </row>
     <row r="884">
       <c r="A884" s="3"/>
+      <c r="G884" s="3"/>
     </row>
     <row r="885">
       <c r="A885" s="3"/>
+      <c r="G885" s="3"/>
     </row>
     <row r="886">
       <c r="A886" s="3"/>
+      <c r="G886" s="3"/>
     </row>
     <row r="887">
       <c r="A887" s="3"/>
+      <c r="G887" s="3"/>
     </row>
     <row r="888">
       <c r="A888" s="3"/>
+      <c r="G888" s="3"/>
     </row>
     <row r="889">
       <c r="A889" s="3"/>
+      <c r="G889" s="3"/>
     </row>
     <row r="890">
       <c r="A890" s="3"/>
+      <c r="G890" s="3"/>
     </row>
     <row r="891">
       <c r="A891" s="3"/>
+      <c r="G891" s="3"/>
     </row>
     <row r="892">
       <c r="A892" s="3"/>
+      <c r="G892" s="3"/>
     </row>
     <row r="893">
       <c r="A893" s="3"/>
+      <c r="G893" s="3"/>
     </row>
     <row r="894">
       <c r="A894" s="3"/>
+      <c r="G894" s="3"/>
     </row>
     <row r="895">
       <c r="A895" s="3"/>
+      <c r="G895" s="3"/>
     </row>
     <row r="896">
       <c r="A896" s="3"/>
+      <c r="G896" s="3"/>
     </row>
     <row r="897">
       <c r="A897" s="3"/>
+      <c r="G897" s="3"/>
     </row>
     <row r="898">
       <c r="A898" s="3"/>
+      <c r="G898" s="3"/>
     </row>
     <row r="899">
       <c r="A899" s="3"/>
+      <c r="G899" s="3"/>
     </row>
     <row r="900">
       <c r="A900" s="3"/>
+      <c r="G900" s="3"/>
     </row>
     <row r="901">
       <c r="A901" s="3"/>
+      <c r="G901" s="3"/>
     </row>
     <row r="902">
       <c r="A902" s="3"/>
+      <c r="G902" s="3"/>
     </row>
     <row r="903">
       <c r="A903" s="3"/>
+      <c r="G903" s="3"/>
     </row>
     <row r="904">
       <c r="A904" s="3"/>
+      <c r="G904" s="3"/>
     </row>
     <row r="905">
       <c r="A905" s="3"/>
+      <c r="G905" s="3"/>
     </row>
     <row r="906">
       <c r="A906" s="3"/>
+      <c r="G906" s="3"/>
     </row>
     <row r="907">
       <c r="A907" s="3"/>
+      <c r="G907" s="3"/>
     </row>
     <row r="908">
       <c r="A908" s="3"/>
+      <c r="G908" s="3"/>
     </row>
     <row r="909">
       <c r="A909" s="3"/>
+      <c r="G909" s="3"/>
     </row>
     <row r="910">
       <c r="A910" s="3"/>
+      <c r="G910" s="3"/>
     </row>
     <row r="911">
       <c r="A911" s="3"/>
+      <c r="G911" s="3"/>
     </row>
     <row r="912">
       <c r="A912" s="3"/>
+      <c r="G912" s="3"/>
     </row>
     <row r="913">
       <c r="A913" s="3"/>
+      <c r="G913" s="3"/>
     </row>
     <row r="914">
       <c r="A914" s="3"/>
+      <c r="G914" s="3"/>
     </row>
     <row r="915">
       <c r="A915" s="3"/>
+      <c r="G915" s="3"/>
     </row>
     <row r="916">
       <c r="A916" s="3"/>
+      <c r="G916" s="3"/>
     </row>
     <row r="917">
       <c r="A917" s="3"/>
+      <c r="G917" s="3"/>
     </row>
     <row r="918">
       <c r="A918" s="3"/>
+      <c r="G918" s="3"/>
     </row>
     <row r="919">
       <c r="A919" s="3"/>
+      <c r="G919" s="3"/>
     </row>
     <row r="920">
       <c r="A920" s="3"/>
+      <c r="G920" s="3"/>
     </row>
     <row r="921">
       <c r="A921" s="3"/>
+      <c r="G921" s="3"/>
     </row>
     <row r="922">
       <c r="A922" s="3"/>
+      <c r="G922" s="3"/>
     </row>
     <row r="923">
       <c r="A923" s="3"/>
+      <c r="G923" s="3"/>
     </row>
     <row r="924">
       <c r="A924" s="3"/>
+      <c r="G924" s="3"/>
     </row>
     <row r="925">
       <c r="A925" s="3"/>
+      <c r="G925" s="3"/>
     </row>
     <row r="926">
       <c r="A926" s="3"/>
+      <c r="G926" s="3"/>
     </row>
     <row r="927">
       <c r="A927" s="3"/>
+      <c r="G927" s="3"/>
     </row>
     <row r="928">
       <c r="A928" s="3"/>
+      <c r="G928" s="3"/>
     </row>
     <row r="929">
       <c r="A929" s="3"/>
+      <c r="G929" s="3"/>
     </row>
     <row r="930">
       <c r="A930" s="3"/>
+      <c r="G930" s="3"/>
     </row>
     <row r="931">
       <c r="A931" s="3"/>
+      <c r="G931" s="3"/>
     </row>
     <row r="932">
       <c r="A932" s="3"/>
+      <c r="G932" s="3"/>
     </row>
     <row r="933">
       <c r="A933" s="3"/>
+      <c r="G933" s="3"/>
     </row>
     <row r="934">
       <c r="A934" s="3"/>
+      <c r="G934" s="3"/>
     </row>
     <row r="935">
       <c r="A935" s="3"/>
+      <c r="G935" s="3"/>
     </row>
     <row r="936">
       <c r="A936" s="3"/>
+      <c r="G936" s="3"/>
     </row>
     <row r="937">
       <c r="A937" s="3"/>
+      <c r="G937" s="3"/>
     </row>
     <row r="938">
       <c r="A938" s="3"/>
+      <c r="G938" s="3"/>
     </row>
     <row r="939">
       <c r="A939" s="3"/>
+      <c r="G939" s="3"/>
     </row>
     <row r="940">
       <c r="A940" s="3"/>
+      <c r="G940" s="3"/>
     </row>
     <row r="941">
       <c r="A941" s="3"/>
+      <c r="G941" s="3"/>
     </row>
     <row r="942">
       <c r="A942" s="3"/>
+      <c r="G942" s="3"/>
     </row>
     <row r="943">
       <c r="A943" s="3"/>
+      <c r="G943" s="3"/>
     </row>
     <row r="944">
       <c r="A944" s="3"/>
+      <c r="G944" s="3"/>
     </row>
     <row r="945">
       <c r="A945" s="3"/>
+      <c r="G945" s="3"/>
     </row>
     <row r="946">
       <c r="A946" s="3"/>
+      <c r="G946" s="3"/>
     </row>
     <row r="947">
       <c r="A947" s="3"/>
+      <c r="G947" s="3"/>
     </row>
     <row r="948">
       <c r="A948" s="3"/>
+      <c r="G948" s="3"/>
     </row>
     <row r="949">
       <c r="A949" s="3"/>
+      <c r="G949" s="3"/>
     </row>
     <row r="950">
       <c r="A950" s="3"/>
+      <c r="G950" s="3"/>
     </row>
     <row r="951">
       <c r="A951" s="3"/>
+      <c r="G951" s="3"/>
     </row>
     <row r="952">
       <c r="A952" s="3"/>
+      <c r="G952" s="3"/>
     </row>
     <row r="953">
       <c r="A953" s="3"/>
+      <c r="G953" s="3"/>
     </row>
     <row r="954">
       <c r="A954" s="3"/>
+      <c r="G954" s="3"/>
     </row>
     <row r="955">
       <c r="A955" s="3"/>
+      <c r="G955" s="3"/>
     </row>
     <row r="956">
       <c r="A956" s="3"/>
+      <c r="G956" s="3"/>
     </row>
     <row r="957">
       <c r="A957" s="3"/>
+      <c r="G957" s="3"/>
     </row>
     <row r="958">
       <c r="A958" s="3"/>
+      <c r="G958" s="3"/>
     </row>
     <row r="959">
       <c r="A959" s="3"/>
+      <c r="G959" s="3"/>
     </row>
     <row r="960">
       <c r="A960" s="3"/>
+      <c r="G960" s="3"/>
     </row>
     <row r="961">
       <c r="A961" s="3"/>
+      <c r="G961" s="3"/>
     </row>
     <row r="962">
       <c r="A962" s="3"/>
+      <c r="G962" s="3"/>
     </row>
     <row r="963">
       <c r="A963" s="3"/>
+      <c r="G963" s="3"/>
     </row>
     <row r="964">
       <c r="A964" s="3"/>
+      <c r="G964" s="3"/>
     </row>
     <row r="965">
       <c r="A965" s="3"/>
+      <c r="G965" s="3"/>
     </row>
     <row r="966">
       <c r="A966" s="3"/>
+      <c r="G966" s="3"/>
     </row>
     <row r="967">
       <c r="A967" s="3"/>
+      <c r="G967" s="3"/>
     </row>
     <row r="968">
       <c r="A968" s="3"/>
+      <c r="G968" s="3"/>
     </row>
     <row r="969">
       <c r="A969" s="3"/>
+      <c r="G969" s="3"/>
     </row>
     <row r="970">
       <c r="A970" s="3"/>
+      <c r="G970" s="3"/>
     </row>
     <row r="971">
       <c r="A971" s="3"/>
+      <c r="G971" s="3"/>
     </row>
     <row r="972">
       <c r="A972" s="3"/>
+      <c r="G972" s="3"/>
     </row>
     <row r="973">
       <c r="A973" s="3"/>
+      <c r="G973" s="3"/>
     </row>
     <row r="974">
       <c r="A974" s="3"/>
+      <c r="G974" s="3"/>
     </row>
     <row r="975">
       <c r="A975" s="3"/>
+      <c r="G975" s="3"/>
     </row>
     <row r="976">
       <c r="A976" s="3"/>
+      <c r="G976" s="3"/>
     </row>
     <row r="977">
       <c r="A977" s="3"/>
+      <c r="G977" s="3"/>
     </row>
     <row r="978">
       <c r="A978" s="3"/>
+      <c r="G978" s="3"/>
     </row>
     <row r="979">
       <c r="A979" s="3"/>
+      <c r="G979" s="3"/>
     </row>
     <row r="980">
       <c r="A980" s="3"/>
+      <c r="G980" s="3"/>
     </row>
     <row r="981">
       <c r="A981" s="3"/>
+      <c r="G981" s="3"/>
     </row>
     <row r="982">
       <c r="A982" s="3"/>
+      <c r="G982" s="3"/>
     </row>
     <row r="983">
       <c r="A983" s="3"/>
+      <c r="G983" s="3"/>
     </row>
     <row r="984">
       <c r="A984" s="3"/>
+      <c r="G984" s="3"/>
     </row>
     <row r="985">
       <c r="A985" s="3"/>
+      <c r="G985" s="3"/>
     </row>
     <row r="986">
       <c r="A986" s="3"/>
+      <c r="G986" s="3"/>
     </row>
     <row r="987">
       <c r="A987" s="3"/>
+      <c r="G987" s="3"/>
     </row>
     <row r="988">
       <c r="A988" s="3"/>
+      <c r="G988" s="3"/>
     </row>
     <row r="989">
       <c r="A989" s="3"/>
+      <c r="G989" s="3"/>
     </row>
     <row r="990">
       <c r="A990" s="3"/>
+      <c r="G990" s="3"/>
     </row>
     <row r="991">
       <c r="A991" s="3"/>
+      <c r="G991" s="3"/>
     </row>
     <row r="992">
       <c r="A992" s="3"/>
+      <c r="G992" s="3"/>
     </row>
     <row r="993">
       <c r="A993" s="3"/>
+      <c r="G993" s="3"/>
     </row>
     <row r="994">
       <c r="A994" s="3"/>
+      <c r="G994" s="3"/>
     </row>
     <row r="995">
       <c r="A995" s="3"/>
+      <c r="G995" s="3"/>
     </row>
     <row r="996">
       <c r="A996" s="3"/>
+      <c r="G996" s="3"/>
     </row>
     <row r="997">
       <c r="A997" s="3"/>
+      <c r="G997" s="3"/>
     </row>
     <row r="998">
       <c r="A998" s="3"/>
+      <c r="G998" s="3"/>
     </row>
     <row r="999">
       <c r="A999" s="3"/>
+      <c r="G999" s="3"/>
     </row>
     <row r="1000">
       <c r="A1000" s="3"/>
+      <c r="G1000" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -34110,15 +35428,24 @@
     <hyperlink r:id="rId5" ref="B9"/>
     <hyperlink r:id="rId6" ref="B10"/>
     <hyperlink r:id="rId7" location="formatted" ref="B12"/>
-    <hyperlink r:id="rId8" ref="B20"/>
-    <hyperlink r:id="rId9" ref="B21"/>
-    <hyperlink r:id="rId10" ref="B22"/>
-    <hyperlink r:id="rId11" ref="B23"/>
-    <hyperlink r:id="rId12" ref="B24"/>
-    <hyperlink r:id="rId13" ref="B25"/>
-    <hyperlink r:id="rId14" ref="B26"/>
+    <hyperlink r:id="rId8" ref="B13"/>
+    <hyperlink r:id="rId9" ref="B15"/>
+    <hyperlink r:id="rId10" ref="B20"/>
+    <hyperlink r:id="rId11" ref="B21"/>
+    <hyperlink r:id="rId12" ref="B22"/>
+    <hyperlink r:id="rId13" ref="B23"/>
+    <hyperlink r:id="rId14" ref="B24"/>
+    <hyperlink r:id="rId15" ref="B25"/>
+    <hyperlink r:id="rId16" ref="B26"/>
+    <hyperlink r:id="rId17" ref="B29"/>
+    <hyperlink r:id="rId18" ref="B30"/>
+    <hyperlink r:id="rId19" location="JFXUI336" ref="B31"/>
+    <hyperlink r:id="rId20" ref="B32"/>
+    <hyperlink r:id="rId21" ref="B33"/>
+    <hyperlink r:id="rId22" ref="B34"/>
+    <hyperlink r:id="rId23" ref="B38"/>
   </hyperlinks>
-  <drawing r:id="rId15"/>
+  <drawing r:id="rId24"/>
 </worksheet>
 </file>
 
@@ -34135,64 +35462,332 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="5" t="s">
-        <v>180</v>
+        <v>219</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="s">
-        <v>181</v>
+        <v>220</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="s">
-        <v>182</v>
+        <v>221</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>183</v>
+        <v>222</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="5" t="s">
-        <v>184</v>
+        <v>223</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>185</v>
+        <v>224</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="s">
-        <v>186</v>
+        <v>225</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="5" t="s">
-        <v>187</v>
+        <v>226</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="21" t="s">
-        <v>188</v>
+      <c r="A11" s="24" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="22" t="s">
-        <v>189</v>
+      <c r="A12" s="25" t="s">
+        <v>228</v>
       </c>
-      <c r="B12" s="21" t="s">
-        <v>190</v>
+      <c r="B12" s="24" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="22" t="s">
-        <v>191</v>
+      <c r="A13" s="25" t="s">
+        <v>230</v>
       </c>
-      <c r="B13" s="23"/>
+      <c r="B13" s="26"/>
     </row>
     <row r="14">
       <c r="A14" s="15" t="s">
-        <v>192</v>
+        <v>231</v>
       </c>
-      <c r="B14" s="23"/>
+      <c r="B14" s="26"/>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="31.86"/>
+    <col customWidth="1" min="2" max="2" width="27.71"/>
+    <col customWidth="1" min="3" max="3" width="37.71"/>
+    <col customWidth="1" min="4" max="4" width="26.43"/>
+    <col customWidth="1" min="5" max="5" width="30.0"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="5" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="23" t="s">
+        <v>233</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>234</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>235</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
